--- a/AccessibleVaccineDashboardData/2021-02-19.xlsx
+++ b/AccessibleVaccineDashboardData/2021-02-19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnicholas000\Desktop\COVID19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62B56B03-616E-4A4E-B0DD-8B5D789CDD05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DDE323F-6E9C-4DB2-BE70-EDB257E2F48E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12050" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About the Data" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="311">
   <si>
     <t>County Name</t>
   </si>
@@ -1140,7 +1140,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1249,9 +1249,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1570,7 +1567,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showWhiteSpace="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1578,7 +1577,7 @@
     <col min="2" max="2" width="121.46484375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="48.65" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>270</v>
       </c>
@@ -1586,15 +1585,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>299</v>
       </c>
       <c r="B2" s="29">
-        <v>44245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>267</v>
       </c>
@@ -1618,7 +1617,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>264</v>
       </c>
@@ -1696,25 +1695,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N259"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="14" customWidth="1"/>
     <col min="2" max="3" width="12.19921875" style="6" customWidth="1"/>
     <col min="4" max="5" width="20.6640625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.796875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="15.73046875" style="6" customWidth="1"/>
     <col min="7" max="7" width="11.46484375" style="6" customWidth="1"/>
     <col min="8" max="8" width="13.19921875" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.06640625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.796875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="14.73046875" style="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="6" customWidth="1"/>
     <col min="12" max="12" width="9.19921875" style="5"/>
     <col min="13" max="14" width="9.19921875" style="12"/>
     <col min="15" max="16384" width="9.19921875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="64.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1764,15 +1763,15 @@
       </c>
       <c r="D2" s="4">
         <f t="shared" ref="D2:K2" si="0">SUM(D4:D258)</f>
-        <v>4290367</v>
+        <v>4325352</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" si="0"/>
-        <v>3031894</v>
+        <v>3047251</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" si="0"/>
-        <v>1258473</v>
+        <v>1278101</v>
       </c>
       <c r="G2" s="4">
         <f t="shared" si="0"/>
@@ -1797,7 +1796,7 @@
       <c r="M2" s="12"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27" t="s">
         <v>290</v>
       </c>
@@ -1834,7 +1833,7 @@
       <c r="M3" s="12"/>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>5</v>
       </c>
@@ -1845,13 +1844,13 @@
         <v>6400</v>
       </c>
       <c r="D4" s="37">
-        <v>4351</v>
+        <v>4348</v>
       </c>
       <c r="E4" s="37">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="F4" s="37">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="G4" s="38">
         <v>48045</v>
@@ -1869,7 +1868,7 @@
         <v>20206</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A5" s="39" t="s">
         <v>7</v>
       </c>
@@ -1880,13 +1879,13 @@
         <v>2200</v>
       </c>
       <c r="D5" s="37">
-        <v>2993</v>
+        <v>3017</v>
       </c>
       <c r="E5" s="37">
-        <v>2366</v>
+        <v>2369</v>
       </c>
       <c r="F5" s="37">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="G5" s="38">
         <v>13503</v>
@@ -1904,7 +1903,7 @@
         <v>5450</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A6" s="39" t="s">
         <v>8</v>
       </c>
@@ -1915,13 +1914,13 @@
         <v>17900</v>
       </c>
       <c r="D6" s="37">
-        <v>13531</v>
+        <v>13572</v>
       </c>
       <c r="E6" s="37">
-        <v>9118</v>
+        <v>9135</v>
       </c>
       <c r="F6" s="37">
-        <v>4413</v>
+        <v>4437</v>
       </c>
       <c r="G6" s="38">
         <v>67056</v>
@@ -1939,7 +1938,7 @@
         <v>28054</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A7" s="39" t="s">
         <v>9</v>
       </c>
@@ -1950,13 +1949,13 @@
         <v>1300</v>
       </c>
       <c r="D7" s="37">
-        <v>3114</v>
+        <v>3167</v>
       </c>
       <c r="E7" s="37">
-        <v>2303</v>
+        <v>2333</v>
       </c>
       <c r="F7" s="37">
-        <v>811</v>
+        <v>834</v>
       </c>
       <c r="G7" s="38">
         <v>19803</v>
@@ -1974,7 +1973,7 @@
         <v>6701</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A8" s="39" t="s">
         <v>10</v>
       </c>
@@ -1985,13 +1984,13 @@
         <v>900</v>
       </c>
       <c r="D8" s="37">
-        <v>1869</v>
+        <v>1896</v>
       </c>
       <c r="E8" s="37">
-        <v>1279</v>
+        <v>1296</v>
       </c>
       <c r="F8" s="37">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G8" s="38">
         <v>6921</v>
@@ -2009,7 +2008,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
         <v>11</v>
       </c>
@@ -2020,13 +2019,13 @@
         <v>500</v>
       </c>
       <c r="D9" s="37">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E9" s="37">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F9" s="37">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="G9" s="38">
         <v>1499</v>
@@ -2044,7 +2043,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.25" x14ac:dyDescent="0.3">
       <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
@@ -2055,13 +2054,13 @@
         <v>4100</v>
       </c>
       <c r="D10" s="37">
-        <v>4792</v>
+        <v>4815</v>
       </c>
       <c r="E10" s="37">
-        <v>3400</v>
+        <v>3417</v>
       </c>
       <c r="F10" s="37">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="G10" s="38">
         <v>38768</v>
@@ -2090,13 +2089,13 @@
         <v>2300</v>
       </c>
       <c r="D11" s="37">
-        <v>5264</v>
+        <v>5342</v>
       </c>
       <c r="E11" s="37">
-        <v>4160</v>
+        <v>4236</v>
       </c>
       <c r="F11" s="37">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="G11" s="38">
         <v>23704</v>
@@ -2125,13 +2124,13 @@
         <v>7425</v>
       </c>
       <c r="D12" s="37">
-        <v>2573</v>
+        <v>2543</v>
       </c>
       <c r="E12" s="37">
-        <v>1452</v>
+        <v>1434</v>
       </c>
       <c r="F12" s="37">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="G12" s="38">
         <v>5089</v>
@@ -2160,13 +2159,13 @@
         <v>600</v>
       </c>
       <c r="D13" s="37">
-        <v>2597</v>
+        <v>2613</v>
       </c>
       <c r="E13" s="37">
-        <v>2069</v>
+        <v>2073</v>
       </c>
       <c r="F13" s="37">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="G13" s="38">
         <v>19763</v>
@@ -2195,13 +2194,13 @@
         <v>10900</v>
       </c>
       <c r="D14" s="37">
-        <v>6214</v>
+        <v>6419</v>
       </c>
       <c r="E14" s="37">
-        <v>4259</v>
+        <v>4447</v>
       </c>
       <c r="F14" s="37">
-        <v>1955</v>
+        <v>1972</v>
       </c>
       <c r="G14" s="38">
         <v>68839</v>
@@ -2230,13 +2229,13 @@
         <v>3050</v>
       </c>
       <c r="D15" s="37">
-        <v>1508</v>
+        <v>1536</v>
       </c>
       <c r="E15" s="37">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="F15" s="37">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="G15" s="38">
         <v>2793</v>
@@ -2265,13 +2264,13 @@
         <v>23100</v>
       </c>
       <c r="D16" s="37">
-        <v>8345</v>
+        <v>8356</v>
       </c>
       <c r="E16" s="37">
-        <v>5566</v>
+        <v>5569</v>
       </c>
       <c r="F16" s="37">
-        <v>2779</v>
+        <v>2787</v>
       </c>
       <c r="G16" s="38">
         <v>26496</v>
@@ -2300,13 +2299,13 @@
         <v>58050</v>
       </c>
       <c r="D17" s="37">
-        <v>36114</v>
+        <v>36157</v>
       </c>
       <c r="E17" s="37">
-        <v>24743</v>
+        <v>24756</v>
       </c>
       <c r="F17" s="37">
-        <v>11371</v>
+        <v>11401</v>
       </c>
       <c r="G17" s="38">
         <v>272969</v>
@@ -2335,13 +2334,13 @@
         <v>452750</v>
       </c>
       <c r="D18" s="37">
-        <v>300936</v>
+        <v>303526</v>
       </c>
       <c r="E18" s="37">
-        <v>210070</v>
+        <v>211429</v>
       </c>
       <c r="F18" s="37">
-        <v>90866</v>
+        <v>92097</v>
       </c>
       <c r="G18" s="38">
         <v>1552823</v>
@@ -2370,10 +2369,10 @@
         <v>1300</v>
       </c>
       <c r="D19" s="37">
-        <v>1893</v>
+        <v>1866</v>
       </c>
       <c r="E19" s="37">
-        <v>1565</v>
+        <v>1538</v>
       </c>
       <c r="F19" s="37">
         <v>328</v>
@@ -2405,13 +2404,13 @@
         <v>0</v>
       </c>
       <c r="D20" s="37">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E20" s="37">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F20" s="37">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G20" s="38">
         <v>543</v>
@@ -2440,13 +2439,13 @@
         <v>3000</v>
       </c>
       <c r="D21" s="37">
-        <v>2821</v>
+        <v>2841</v>
       </c>
       <c r="E21" s="37">
-        <v>1737</v>
+        <v>1747</v>
       </c>
       <c r="F21" s="37">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="G21" s="38">
         <v>15224</v>
@@ -2475,13 +2474,13 @@
         <v>15850</v>
       </c>
       <c r="D22" s="37">
-        <v>7163</v>
+        <v>7338</v>
       </c>
       <c r="E22" s="37">
-        <v>4839</v>
+        <v>4849</v>
       </c>
       <c r="F22" s="37">
-        <v>2324</v>
+        <v>2489</v>
       </c>
       <c r="G22" s="38">
         <v>73689</v>
@@ -2510,13 +2509,13 @@
         <v>45000</v>
       </c>
       <c r="D23" s="37">
-        <v>54177</v>
+        <v>54551</v>
       </c>
       <c r="E23" s="37">
-        <v>36630</v>
+        <v>36827</v>
       </c>
       <c r="F23" s="37">
-        <v>17547</v>
+        <v>17724</v>
       </c>
       <c r="G23" s="38">
         <v>287683</v>
@@ -2545,13 +2544,13 @@
         <v>33900</v>
       </c>
       <c r="D24" s="37">
-        <v>23252</v>
+        <v>23537</v>
       </c>
       <c r="E24" s="37">
-        <v>16934</v>
+        <v>17162</v>
       </c>
       <c r="F24" s="37">
-        <v>6318</v>
+        <v>6375</v>
       </c>
       <c r="G24" s="38">
         <v>186843</v>
@@ -2580,13 +2579,13 @@
         <v>1600</v>
       </c>
       <c r="D25" s="37">
-        <v>2272</v>
+        <v>2248</v>
       </c>
       <c r="E25" s="37">
-        <v>1924</v>
+        <v>1904</v>
       </c>
       <c r="F25" s="37">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G25" s="38">
         <v>7706</v>
@@ -2615,10 +2614,10 @@
         <v>400</v>
       </c>
       <c r="D26" s="37">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E26" s="37">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F26" s="37">
         <v>149</v>
@@ -2650,13 +2649,13 @@
         <v>1300</v>
       </c>
       <c r="D27" s="37">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="E27" s="37">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="F27" s="37">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="G27" s="38">
         <v>5317</v>
@@ -2685,13 +2684,13 @@
         <v>3000</v>
       </c>
       <c r="D28" s="37">
-        <v>3648</v>
+        <v>3694</v>
       </c>
       <c r="E28" s="37">
-        <v>2597</v>
+        <v>2630</v>
       </c>
       <c r="F28" s="37">
-        <v>1051</v>
+        <v>1064</v>
       </c>
       <c r="G28" s="38">
         <v>30883</v>
@@ -2720,13 +2719,13 @@
         <v>1100</v>
       </c>
       <c r="D29" s="37">
-        <v>2201</v>
+        <v>2208</v>
       </c>
       <c r="E29" s="37">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="F29" s="37">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G29" s="38">
         <v>14869</v>
@@ -2755,13 +2754,13 @@
         <v>8475</v>
       </c>
       <c r="D30" s="37">
-        <v>5046</v>
+        <v>5076</v>
       </c>
       <c r="E30" s="37">
-        <v>3917</v>
+        <v>3941</v>
       </c>
       <c r="F30" s="37">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="G30" s="38">
         <v>39239</v>
@@ -2790,13 +2789,13 @@
         <v>3700</v>
       </c>
       <c r="D31" s="37">
-        <v>3459</v>
+        <v>3482</v>
       </c>
       <c r="E31" s="37">
-        <v>2392</v>
+        <v>2410</v>
       </c>
       <c r="F31" s="37">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="G31" s="38">
         <v>34853</v>
@@ -2825,13 +2824,13 @@
         <v>1400</v>
       </c>
       <c r="D32" s="37">
-        <v>2559</v>
+        <v>2507</v>
       </c>
       <c r="E32" s="37">
-        <v>1773</v>
+        <v>1741</v>
       </c>
       <c r="F32" s="37">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G32" s="38">
         <v>16817</v>
@@ -2860,13 +2859,13 @@
         <v>1300</v>
       </c>
       <c r="D33" s="37">
-        <v>1641</v>
+        <v>1668</v>
       </c>
       <c r="E33" s="37">
-        <v>1186</v>
+        <v>1204</v>
       </c>
       <c r="F33" s="37">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G33" s="38">
         <v>11263</v>
@@ -2895,13 +2894,13 @@
         <v>89425</v>
       </c>
       <c r="D34" s="37">
-        <v>76817</v>
+        <v>77793</v>
       </c>
       <c r="E34" s="37">
-        <v>53107</v>
+        <v>53837</v>
       </c>
       <c r="F34" s="37">
-        <v>23710</v>
+        <v>23956</v>
       </c>
       <c r="G34" s="38">
         <v>311689</v>
@@ -2930,13 +2929,13 @@
         <v>400</v>
       </c>
       <c r="D35" s="37">
-        <v>1263</v>
+        <v>1289</v>
       </c>
       <c r="E35" s="37">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="F35" s="37">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G35" s="38">
         <v>10031</v>
@@ -2965,13 +2964,13 @@
         <v>300</v>
       </c>
       <c r="D36" s="37">
-        <v>1139</v>
+        <v>1192</v>
       </c>
       <c r="E36" s="37">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="F36" s="37">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="G36" s="38">
         <v>4718</v>
@@ -3000,13 +2999,13 @@
         <v>700</v>
       </c>
       <c r="D37" s="37">
-        <v>1374</v>
+        <v>1407</v>
       </c>
       <c r="E37" s="37">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="F37" s="37">
-        <v>432</v>
+        <v>449</v>
       </c>
       <c r="G37" s="38">
         <v>24182</v>
@@ -3035,13 +3034,13 @@
         <v>1300</v>
       </c>
       <c r="D38" s="37">
-        <v>1305</v>
+        <v>1309</v>
       </c>
       <c r="E38" s="37">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F38" s="37">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G38" s="38">
         <v>5607</v>
@@ -3070,13 +3069,13 @@
         <v>11700</v>
       </c>
       <c r="D39" s="37">
-        <v>4602</v>
+        <v>4740</v>
       </c>
       <c r="E39" s="37">
-        <v>3055</v>
+        <v>3150</v>
       </c>
       <c r="F39" s="37">
-        <v>1547</v>
+        <v>1590</v>
       </c>
       <c r="G39" s="38">
         <v>33062</v>
@@ -3105,13 +3104,13 @@
         <v>6800</v>
       </c>
       <c r="D40" s="37">
-        <v>5718</v>
+        <v>5784</v>
       </c>
       <c r="E40" s="37">
-        <v>3900</v>
+        <v>3942</v>
       </c>
       <c r="F40" s="37">
-        <v>1818</v>
+        <v>1842</v>
       </c>
       <c r="G40" s="38">
         <v>40876</v>
@@ -3140,13 +3139,13 @@
         <v>1700</v>
       </c>
       <c r="D41" s="37">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="E41" s="37">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F41" s="37">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G41" s="38">
         <v>6094</v>
@@ -3175,13 +3174,13 @@
         <v>5375</v>
       </c>
       <c r="D42" s="37">
-        <v>2879</v>
+        <v>2901</v>
       </c>
       <c r="E42" s="37">
-        <v>2277</v>
+        <v>2292</v>
       </c>
       <c r="F42" s="37">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="G42" s="38">
         <v>8666</v>
@@ -3210,13 +3209,13 @@
         <v>400</v>
       </c>
       <c r="D43" s="37">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="E43" s="37">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="F43" s="37">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="G43" s="38">
         <v>2188</v>
@@ -3245,13 +3244,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="37">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E44" s="37">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="F44" s="37">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G44" s="38">
         <v>2756</v>
@@ -3280,13 +3279,13 @@
         <v>900</v>
       </c>
       <c r="D45" s="37">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E45" s="37">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F45" s="37">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G45" s="38">
         <v>6721</v>
@@ -3315,13 +3314,13 @@
         <v>143350</v>
       </c>
       <c r="D46" s="37">
-        <v>154558</v>
+        <v>156149</v>
       </c>
       <c r="E46" s="37">
-        <v>116152</v>
+        <v>116970</v>
       </c>
       <c r="F46" s="37">
-        <v>38406</v>
+        <v>39179</v>
       </c>
       <c r="G46" s="38">
         <v>801716</v>
@@ -3350,13 +3349,13 @@
         <v>700</v>
       </c>
       <c r="D47" s="37">
-        <v>541</v>
+        <v>684</v>
       </c>
       <c r="E47" s="37">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="F47" s="37">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="G47" s="38">
         <v>2263</v>
@@ -3385,13 +3384,13 @@
         <v>2600</v>
       </c>
       <c r="D48" s="37">
-        <v>3245</v>
+        <v>3264</v>
       </c>
       <c r="E48" s="37">
-        <v>2567</v>
+        <v>2582</v>
       </c>
       <c r="F48" s="37">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="G48" s="38">
         <v>17107</v>
@@ -3420,13 +3419,13 @@
         <v>20500</v>
       </c>
       <c r="D49" s="37">
-        <v>22383</v>
+        <v>22715</v>
       </c>
       <c r="E49" s="37">
-        <v>17208</v>
+        <v>17470</v>
       </c>
       <c r="F49" s="37">
-        <v>5175</v>
+        <v>5245</v>
       </c>
       <c r="G49" s="38">
         <v>125307</v>
@@ -3455,13 +3454,13 @@
         <v>2950</v>
       </c>
       <c r="D50" s="37">
-        <v>2705</v>
+        <v>2779</v>
       </c>
       <c r="E50" s="37">
-        <v>1539</v>
+        <v>1549</v>
       </c>
       <c r="F50" s="37">
-        <v>1166</v>
+        <v>1230</v>
       </c>
       <c r="G50" s="38">
         <v>10944</v>
@@ -3490,13 +3489,13 @@
         <v>400</v>
       </c>
       <c r="D51" s="37">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E51" s="37">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F51" s="37">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G51" s="38">
         <v>2288</v>
@@ -3525,13 +3524,13 @@
         <v>4600</v>
       </c>
       <c r="D52" s="37">
-        <v>4894</v>
+        <v>5000</v>
       </c>
       <c r="E52" s="37">
-        <v>3521</v>
+        <v>3612</v>
       </c>
       <c r="F52" s="37">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="G52" s="38">
         <v>32675</v>
@@ -3560,13 +3559,13 @@
         <v>9025</v>
       </c>
       <c r="D53" s="37">
-        <v>6536</v>
+        <v>6600</v>
       </c>
       <c r="E53" s="37">
-        <v>4601</v>
+        <v>4625</v>
       </c>
       <c r="F53" s="37">
-        <v>1935</v>
+        <v>1975</v>
       </c>
       <c r="G53" s="38">
         <v>60428</v>
@@ -3595,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="D54" s="37">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E54" s="37">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F54" s="37">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G54" s="38">
         <v>1123</v>
@@ -3630,13 +3629,13 @@
         <v>2250</v>
       </c>
       <c r="D55" s="37">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="E55" s="37">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="F55" s="37">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G55" s="38">
         <v>3554</v>
@@ -3668,10 +3667,10 @@
         <v>822</v>
       </c>
       <c r="E56" s="37">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F56" s="37">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G56" s="38">
         <v>2694</v>
@@ -3700,13 +3699,13 @@
         <v>2450</v>
       </c>
       <c r="D57" s="37">
-        <v>1469</v>
+        <v>1492</v>
       </c>
       <c r="E57" s="37">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="F57" s="37">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="G57" s="38">
         <v>4421</v>
@@ -3735,10 +3734,10 @@
         <v>700</v>
       </c>
       <c r="D58" s="37">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E58" s="37">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F58" s="37">
         <v>80</v>
@@ -3770,13 +3769,13 @@
         <v>6850</v>
       </c>
       <c r="D59" s="37">
-        <v>2510</v>
+        <v>2476</v>
       </c>
       <c r="E59" s="37">
-        <v>1775</v>
+        <v>1740</v>
       </c>
       <c r="F59" s="37">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G59" s="38">
         <v>5217</v>
@@ -3805,13 +3804,13 @@
         <v>547325</v>
       </c>
       <c r="D60" s="37">
-        <v>350474</v>
+        <v>355009</v>
       </c>
       <c r="E60" s="37">
-        <v>249207</v>
+        <v>250550</v>
       </c>
       <c r="F60" s="37">
-        <v>101267</v>
+        <v>104459</v>
       </c>
       <c r="G60" s="38">
         <v>2028105</v>
@@ -3840,13 +3839,13 @@
         <v>1100</v>
       </c>
       <c r="D61" s="37">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="E61" s="37">
-        <v>864</v>
+        <v>931</v>
       </c>
       <c r="F61" s="37">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="G61" s="38">
         <v>9789</v>
@@ -3875,13 +3874,13 @@
         <v>2300</v>
       </c>
       <c r="D62" s="37">
-        <v>2424</v>
+        <v>2431</v>
       </c>
       <c r="E62" s="37">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F62" s="37">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="G62" s="38">
         <v>13439</v>
@@ -3910,13 +3909,13 @@
         <v>300</v>
       </c>
       <c r="D63" s="37">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="E63" s="37">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="F63" s="37">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G63" s="38">
         <v>4222</v>
@@ -3945,13 +3944,13 @@
         <v>123050</v>
       </c>
       <c r="D64" s="37">
-        <v>89443</v>
+        <v>90840</v>
       </c>
       <c r="E64" s="37">
-        <v>63278</v>
+        <v>64055</v>
       </c>
       <c r="F64" s="37">
-        <v>26165</v>
+        <v>26785</v>
       </c>
       <c r="G64" s="38">
         <v>697330</v>
@@ -3980,13 +3979,13 @@
         <v>1000</v>
       </c>
       <c r="D65" s="37">
-        <v>1774</v>
+        <v>1787</v>
       </c>
       <c r="E65" s="37">
-        <v>1226</v>
+        <v>1235</v>
       </c>
       <c r="F65" s="37">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="G65" s="38">
         <v>16110</v>
@@ -4015,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="D66" s="37">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E66" s="37">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F66" s="37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G66" s="38">
         <v>1858</v>
@@ -4050,13 +4049,13 @@
         <v>8125</v>
       </c>
       <c r="D67" s="37">
-        <v>3294</v>
+        <v>3374</v>
       </c>
       <c r="E67" s="37">
-        <v>2691</v>
+        <v>2695</v>
       </c>
       <c r="F67" s="37">
-        <v>603</v>
+        <v>679</v>
       </c>
       <c r="G67" s="38">
         <v>7539</v>
@@ -4085,13 +4084,13 @@
         <v>300</v>
       </c>
       <c r="D68" s="37">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E68" s="37">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F68" s="37">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G68" s="38">
         <v>2716</v>
@@ -4120,13 +4119,13 @@
         <v>900</v>
       </c>
       <c r="D69" s="37">
-        <v>2171</v>
+        <v>2193</v>
       </c>
       <c r="E69" s="37">
-        <v>1501</v>
+        <v>1512</v>
       </c>
       <c r="F69" s="37">
-        <v>670</v>
+        <v>681</v>
       </c>
       <c r="G69" s="38">
         <v>8600</v>
@@ -4155,13 +4154,13 @@
         <v>1400</v>
       </c>
       <c r="D70" s="37">
-        <v>1864</v>
+        <v>1873</v>
       </c>
       <c r="E70" s="37">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="F70" s="37">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="G70" s="38">
         <v>14970</v>
@@ -4190,13 +4189,13 @@
         <v>41800</v>
       </c>
       <c r="D71" s="37">
-        <v>25339</v>
+        <v>26436</v>
       </c>
       <c r="E71" s="37">
-        <v>19967</v>
+        <v>20075</v>
       </c>
       <c r="F71" s="37">
-        <v>5372</v>
+        <v>6361</v>
       </c>
       <c r="G71" s="38">
         <v>120896</v>
@@ -4225,10 +4224,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="37">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E72" s="37">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F72" s="37">
         <v>27</v>
@@ -4260,13 +4259,13 @@
         <v>194000</v>
       </c>
       <c r="D73" s="37">
-        <v>162562</v>
+        <v>165790</v>
       </c>
       <c r="E73" s="37">
-        <v>111324</v>
+        <v>111842</v>
       </c>
       <c r="F73" s="37">
-        <v>51238</v>
+        <v>53948</v>
       </c>
       <c r="G73" s="38">
         <v>640180</v>
@@ -4295,13 +4294,13 @@
         <v>16900</v>
       </c>
       <c r="D74" s="37">
-        <v>24398</v>
+        <v>24546</v>
       </c>
       <c r="E74" s="37">
-        <v>18361</v>
+        <v>18447</v>
       </c>
       <c r="F74" s="37">
-        <v>6037</v>
+        <v>6099</v>
       </c>
       <c r="G74" s="38">
         <v>141665</v>
@@ -4330,13 +4329,13 @@
         <v>3600</v>
       </c>
       <c r="D75" s="37">
-        <v>4189</v>
+        <v>4207</v>
       </c>
       <c r="E75" s="37">
-        <v>3097</v>
+        <v>3103</v>
       </c>
       <c r="F75" s="37">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="G75" s="38">
         <v>34875</v>
@@ -4365,13 +4364,13 @@
         <v>7825</v>
       </c>
       <c r="D76" s="37">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="E76" s="37">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="F76" s="37">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G76" s="38">
         <v>14049</v>
@@ -4400,13 +4399,13 @@
         <v>10525</v>
       </c>
       <c r="D77" s="37">
-        <v>4760</v>
+        <v>4762</v>
       </c>
       <c r="E77" s="37">
         <v>3316</v>
       </c>
       <c r="F77" s="37">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="G77" s="38">
         <v>28874</v>
@@ -4435,13 +4434,13 @@
         <v>1600</v>
       </c>
       <c r="D78" s="37">
-        <v>3344</v>
+        <v>3364</v>
       </c>
       <c r="E78" s="37">
-        <v>2638</v>
+        <v>2654</v>
       </c>
       <c r="F78" s="37">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="G78" s="38">
         <v>20879</v>
@@ -4470,10 +4469,10 @@
         <v>700</v>
       </c>
       <c r="D79" s="37">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="E79" s="37">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F79" s="37">
         <v>69</v>
@@ -4505,13 +4504,13 @@
         <v>700</v>
       </c>
       <c r="D80" s="37">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="E80" s="37">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F80" s="37">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G80" s="38">
         <v>4371</v>
@@ -4540,13 +4539,13 @@
         <v>500</v>
       </c>
       <c r="D81" s="37">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E81" s="37">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F81" s="37">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G81" s="38">
         <v>962</v>
@@ -4575,13 +4574,13 @@
         <v>116900</v>
       </c>
       <c r="D82" s="37">
-        <v>144599</v>
+        <v>145641</v>
       </c>
       <c r="E82" s="37">
-        <v>101117</v>
+        <v>101855</v>
       </c>
       <c r="F82" s="37">
-        <v>43482</v>
+        <v>43786</v>
       </c>
       <c r="G82" s="38">
         <v>616413</v>
@@ -4610,13 +4609,13 @@
         <v>900</v>
       </c>
       <c r="D83" s="37">
-        <v>1274</v>
+        <v>1281</v>
       </c>
       <c r="E83" s="37">
-        <v>908</v>
+        <v>914</v>
       </c>
       <c r="F83" s="37">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G83" s="38">
         <v>8554</v>
@@ -4645,10 +4644,10 @@
         <v>1300</v>
       </c>
       <c r="D84" s="37">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="E84" s="37">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="F84" s="37">
         <v>457</v>
@@ -4680,13 +4679,13 @@
         <v>4650</v>
       </c>
       <c r="D85" s="37">
-        <v>2811</v>
+        <v>2831</v>
       </c>
       <c r="E85" s="37">
-        <v>2009</v>
+        <v>2027</v>
       </c>
       <c r="F85" s="37">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G85" s="38">
         <v>16121</v>
@@ -4715,13 +4714,13 @@
         <v>1600</v>
       </c>
       <c r="D86" s="37">
-        <v>1600</v>
+        <v>1665</v>
       </c>
       <c r="E86" s="37">
-        <v>1023</v>
+        <v>1075</v>
       </c>
       <c r="F86" s="37">
-        <v>577</v>
+        <v>590</v>
       </c>
       <c r="G86" s="38">
         <v>14548</v>
@@ -4750,13 +4749,13 @@
         <v>69200</v>
       </c>
       <c r="D87" s="37">
-        <v>68179</v>
+        <v>68582</v>
       </c>
       <c r="E87" s="37">
-        <v>44335</v>
+        <v>44466</v>
       </c>
       <c r="F87" s="37">
-        <v>23844</v>
+        <v>24116</v>
       </c>
       <c r="G87" s="38">
         <v>269280</v>
@@ -4785,13 +4784,13 @@
         <v>500</v>
       </c>
       <c r="D88" s="37">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="E88" s="37">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F88" s="37">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G88" s="38">
         <v>5325</v>
@@ -4820,13 +4819,13 @@
         <v>9200</v>
       </c>
       <c r="D89" s="37">
-        <v>5432</v>
+        <v>5458</v>
       </c>
       <c r="E89" s="37">
-        <v>4174</v>
+        <v>4195</v>
       </c>
       <c r="F89" s="37">
-        <v>1258</v>
+        <v>1263</v>
       </c>
       <c r="G89" s="38">
         <v>22307</v>
@@ -4855,13 +4854,13 @@
         <v>0</v>
       </c>
       <c r="D90" s="37">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E90" s="37">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F90" s="37">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G90" s="38">
         <v>1099</v>
@@ -4890,13 +4889,13 @@
         <v>400</v>
       </c>
       <c r="D91" s="37">
-        <v>1597</v>
+        <v>1592</v>
       </c>
       <c r="E91" s="37">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="F91" s="37">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G91" s="38">
         <v>6281</v>
@@ -4925,13 +4924,13 @@
         <v>1900</v>
       </c>
       <c r="D92" s="37">
-        <v>2737</v>
+        <v>2742</v>
       </c>
       <c r="E92" s="37">
         <v>1845</v>
       </c>
       <c r="F92" s="37">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="G92" s="38">
         <v>15937</v>
@@ -4960,13 +4959,13 @@
         <v>1800</v>
       </c>
       <c r="D93" s="37">
-        <v>2630</v>
+        <v>2632</v>
       </c>
       <c r="E93" s="37">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="F93" s="37">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G93" s="38">
         <v>16924</v>
@@ -4995,13 +4994,13 @@
         <v>24600</v>
       </c>
       <c r="D94" s="37">
-        <v>16343</v>
+        <v>16395</v>
       </c>
       <c r="E94" s="37">
-        <v>11270</v>
+        <v>11306</v>
       </c>
       <c r="F94" s="37">
-        <v>5073</v>
+        <v>5089</v>
       </c>
       <c r="G94" s="38">
         <v>107521</v>
@@ -5030,13 +5029,13 @@
         <v>29375</v>
       </c>
       <c r="D95" s="37">
-        <v>16993</v>
+        <v>17199</v>
       </c>
       <c r="E95" s="37">
-        <v>12625</v>
+        <v>12707</v>
       </c>
       <c r="F95" s="37">
-        <v>4368</v>
+        <v>4492</v>
       </c>
       <c r="G95" s="38">
         <v>95544</v>
@@ -5065,13 +5064,13 @@
         <v>1700</v>
       </c>
       <c r="D96" s="37">
-        <v>2565</v>
+        <v>2587</v>
       </c>
       <c r="E96" s="37">
-        <v>1833</v>
+        <v>1851</v>
       </c>
       <c r="F96" s="37">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="G96" s="38">
         <v>23245</v>
@@ -5100,13 +5099,13 @@
         <v>17425</v>
       </c>
       <c r="D97" s="37">
-        <v>17705</v>
+        <v>17902</v>
       </c>
       <c r="E97" s="37">
-        <v>12957</v>
+        <v>13090</v>
       </c>
       <c r="F97" s="37">
-        <v>4748</v>
+        <v>4812</v>
       </c>
       <c r="G97" s="38">
         <v>130517</v>
@@ -5135,13 +5134,13 @@
         <v>3300</v>
       </c>
       <c r="D98" s="37">
-        <v>4551</v>
+        <v>4605</v>
       </c>
       <c r="E98" s="37">
-        <v>3116</v>
+        <v>3147</v>
       </c>
       <c r="F98" s="37">
-        <v>1435</v>
+        <v>1458</v>
       </c>
       <c r="G98" s="38">
         <v>25476</v>
@@ -5170,13 +5169,13 @@
         <v>0</v>
       </c>
       <c r="D99" s="37">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="E99" s="37">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F99" s="37">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G99" s="38">
         <v>2406</v>
@@ -5205,13 +5204,13 @@
         <v>1800</v>
       </c>
       <c r="D100" s="37">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="E100" s="37">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F100" s="37">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G100" s="38">
         <v>6832</v>
@@ -5240,13 +5239,13 @@
         <v>900</v>
       </c>
       <c r="D101" s="37">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E101" s="37">
         <v>645</v>
       </c>
       <c r="F101" s="37">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G101" s="38">
         <v>3987</v>
@@ -5275,10 +5274,10 @@
         <v>1200</v>
       </c>
       <c r="D102" s="37">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E102" s="37">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F102" s="37">
         <v>434</v>
@@ -5310,13 +5309,13 @@
         <v>5900</v>
       </c>
       <c r="D103" s="37">
-        <v>7215</v>
+        <v>7376</v>
       </c>
       <c r="E103" s="37">
-        <v>5371</v>
+        <v>5458</v>
       </c>
       <c r="F103" s="37">
-        <v>1844</v>
+        <v>1918</v>
       </c>
       <c r="G103" s="38">
         <v>45112</v>
@@ -5345,13 +5344,13 @@
         <v>871450</v>
       </c>
       <c r="D104" s="37">
-        <v>624155</v>
+        <v>626420</v>
       </c>
       <c r="E104" s="37">
-        <v>425034</v>
+        <v>426438</v>
       </c>
       <c r="F104" s="37">
-        <v>199121</v>
+        <v>199982</v>
       </c>
       <c r="G104" s="38">
         <v>3601939</v>
@@ -5380,13 +5379,13 @@
         <v>4900</v>
       </c>
       <c r="D105" s="37">
-        <v>5116</v>
+        <v>5167</v>
       </c>
       <c r="E105" s="37">
-        <v>3736</v>
+        <v>3764</v>
       </c>
       <c r="F105" s="37">
-        <v>1380</v>
+        <v>1403</v>
       </c>
       <c r="G105" s="38">
         <v>51900</v>
@@ -5415,13 +5414,13 @@
         <v>1475</v>
       </c>
       <c r="D106" s="37">
-        <v>1414</v>
+        <v>1490</v>
       </c>
       <c r="E106" s="37">
-        <v>957</v>
+        <v>988</v>
       </c>
       <c r="F106" s="37">
-        <v>457</v>
+        <v>502</v>
       </c>
       <c r="G106" s="38">
         <v>4561</v>
@@ -5450,13 +5449,13 @@
         <v>600</v>
       </c>
       <c r="D107" s="37">
-        <v>1019</v>
+        <v>1068</v>
       </c>
       <c r="E107" s="37">
-        <v>788</v>
+        <v>832</v>
       </c>
       <c r="F107" s="37">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G107" s="38">
         <v>4831</v>
@@ -5485,13 +5484,13 @@
         <v>35350</v>
       </c>
       <c r="D108" s="37">
-        <v>28363</v>
+        <v>28437</v>
       </c>
       <c r="E108" s="37">
-        <v>21019</v>
+        <v>21067</v>
       </c>
       <c r="F108" s="37">
-        <v>7344</v>
+        <v>7370</v>
       </c>
       <c r="G108" s="38">
         <v>183380</v>
@@ -5520,10 +5519,10 @@
         <v>1300</v>
       </c>
       <c r="D109" s="37">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E109" s="37">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="F109" s="37">
         <v>369</v>
@@ -5555,13 +5554,13 @@
         <v>5100</v>
       </c>
       <c r="D110" s="37">
-        <v>8211</v>
+        <v>8260</v>
       </c>
       <c r="E110" s="37">
-        <v>5873</v>
+        <v>5914</v>
       </c>
       <c r="F110" s="37">
-        <v>2338</v>
+        <v>2346</v>
       </c>
       <c r="G110" s="38">
         <v>67238</v>
@@ -5590,13 +5589,13 @@
         <v>188750</v>
       </c>
       <c r="D111" s="37">
-        <v>124134</v>
+        <v>127328</v>
       </c>
       <c r="E111" s="37">
-        <v>83220</v>
+        <v>85513</v>
       </c>
       <c r="F111" s="37">
-        <v>40914</v>
+        <v>41815</v>
       </c>
       <c r="G111" s="38">
         <v>620824</v>
@@ -5625,13 +5624,13 @@
         <v>2200</v>
       </c>
       <c r="D112" s="37">
-        <v>4452</v>
+        <v>4481</v>
       </c>
       <c r="E112" s="37">
-        <v>2987</v>
+        <v>3005</v>
       </c>
       <c r="F112" s="37">
-        <v>1465</v>
+        <v>1476</v>
       </c>
       <c r="G112" s="38">
         <v>29198</v>
@@ -5660,13 +5659,13 @@
         <v>1400</v>
       </c>
       <c r="D113" s="37">
-        <v>3648</v>
+        <v>3752</v>
       </c>
       <c r="E113" s="37">
-        <v>2709</v>
+        <v>2773</v>
       </c>
       <c r="F113" s="37">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="G113" s="38">
         <v>17799</v>
@@ -5695,13 +5694,13 @@
         <v>5200</v>
       </c>
       <c r="D114" s="37">
-        <v>7811</v>
+        <v>8064</v>
       </c>
       <c r="E114" s="37">
-        <v>6169</v>
+        <v>6339</v>
       </c>
       <c r="F114" s="37">
-        <v>1642</v>
+        <v>1725</v>
       </c>
       <c r="G114" s="38">
         <v>50193</v>
@@ -5730,13 +5729,13 @@
         <v>3800</v>
       </c>
       <c r="D115" s="37">
-        <v>3425</v>
+        <v>3449</v>
       </c>
       <c r="E115" s="37">
-        <v>2555</v>
+        <v>2572</v>
       </c>
       <c r="F115" s="37">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="G115" s="38">
         <v>29175</v>
@@ -5765,10 +5764,10 @@
         <v>2100</v>
       </c>
       <c r="D116" s="37">
-        <v>2218</v>
+        <v>2207</v>
       </c>
       <c r="E116" s="37">
-        <v>1397</v>
+        <v>1386</v>
       </c>
       <c r="F116" s="37">
         <v>821</v>
@@ -5800,13 +5799,13 @@
         <v>3500</v>
       </c>
       <c r="D117" s="37">
-        <v>3083</v>
+        <v>3108</v>
       </c>
       <c r="E117" s="37">
-        <v>1974</v>
+        <v>1989</v>
       </c>
       <c r="F117" s="37">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="G117" s="38">
         <v>29544</v>
@@ -5835,13 +5834,13 @@
         <v>300</v>
       </c>
       <c r="D118" s="37">
-        <v>687</v>
+        <v>700</v>
       </c>
       <c r="E118" s="37">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="F118" s="37">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G118" s="38">
         <v>3979</v>
@@ -5870,13 +5869,13 @@
         <v>8750</v>
       </c>
       <c r="D119" s="37">
-        <v>10152</v>
+        <v>10191</v>
       </c>
       <c r="E119" s="37">
-        <v>6605</v>
+        <v>6643</v>
       </c>
       <c r="F119" s="37">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="G119" s="38">
         <v>77878</v>
@@ -5905,13 +5904,13 @@
         <v>1000</v>
       </c>
       <c r="D120" s="37">
-        <v>2614</v>
+        <v>2660</v>
       </c>
       <c r="E120" s="37">
-        <v>1879</v>
+        <v>1904</v>
       </c>
       <c r="F120" s="37">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="G120" s="38">
         <v>16258</v>
@@ -5940,13 +5939,13 @@
         <v>0</v>
       </c>
       <c r="D121" s="37">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E121" s="37">
         <v>149</v>
       </c>
       <c r="F121" s="37">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G121" s="38">
         <v>1234</v>
@@ -5978,10 +5977,10 @@
         <v>1170</v>
       </c>
       <c r="E122" s="37">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="F122" s="37">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G122" s="38">
         <v>7230</v>
@@ -6010,13 +6009,13 @@
         <v>4450</v>
       </c>
       <c r="D123" s="37">
-        <v>2651</v>
+        <v>2807</v>
       </c>
       <c r="E123" s="37">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="F123" s="37">
-        <v>626</v>
+        <v>779</v>
       </c>
       <c r="G123" s="38">
         <v>11425</v>
@@ -6045,13 +6044,13 @@
         <v>8800</v>
       </c>
       <c r="D124" s="37">
-        <v>5113</v>
+        <v>5144</v>
       </c>
       <c r="E124" s="37">
-        <v>4391</v>
+        <v>4406</v>
       </c>
       <c r="F124" s="37">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="G124" s="38">
         <v>28056</v>
@@ -6080,13 +6079,13 @@
         <v>200</v>
       </c>
       <c r="D125" s="37">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E125" s="37">
         <v>615</v>
       </c>
       <c r="F125" s="37">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G125" s="38">
         <v>2180</v>
@@ -6115,13 +6114,13 @@
         <v>55150</v>
       </c>
       <c r="D126" s="37">
-        <v>24993</v>
+        <v>26499</v>
       </c>
       <c r="E126" s="37">
-        <v>19177</v>
+        <v>20019</v>
       </c>
       <c r="F126" s="37">
-        <v>5816</v>
+        <v>6480</v>
       </c>
       <c r="G126" s="38">
         <v>197382</v>
@@ -6150,13 +6149,13 @@
         <v>400</v>
       </c>
       <c r="D127" s="37">
-        <v>1444</v>
+        <v>1457</v>
       </c>
       <c r="E127" s="37">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="F127" s="37">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="G127" s="38">
         <v>3791</v>
@@ -6185,13 +6184,13 @@
         <v>8925</v>
       </c>
       <c r="D128" s="37">
-        <v>8988</v>
+        <v>9168</v>
       </c>
       <c r="E128" s="37">
-        <v>6471</v>
+        <v>6556</v>
       </c>
       <c r="F128" s="37">
-        <v>2517</v>
+        <v>2612</v>
       </c>
       <c r="G128" s="38">
         <v>30579</v>
@@ -6220,13 +6219,13 @@
         <v>11600</v>
       </c>
       <c r="D129" s="37">
-        <v>16487</v>
+        <v>16758</v>
       </c>
       <c r="E129" s="37">
-        <v>11164</v>
+        <v>11306</v>
       </c>
       <c r="F129" s="37">
-        <v>5323</v>
+        <v>5452</v>
       </c>
       <c r="G129" s="38">
         <v>135345</v>
@@ -6255,13 +6254,13 @@
         <v>700</v>
       </c>
       <c r="D130" s="37">
-        <v>1688</v>
+        <v>1732</v>
       </c>
       <c r="E130" s="37">
-        <v>1265</v>
+        <v>1301</v>
       </c>
       <c r="F130" s="37">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="G130" s="38">
         <v>17011</v>
@@ -6290,13 +6289,13 @@
         <v>2500</v>
       </c>
       <c r="D131" s="37">
-        <v>1845</v>
+        <v>1858</v>
       </c>
       <c r="E131" s="37">
-        <v>1378</v>
+        <v>1385</v>
       </c>
       <c r="F131" s="37">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G131" s="38">
         <v>12669</v>
@@ -6325,13 +6324,13 @@
         <v>6750</v>
       </c>
       <c r="D132" s="37">
-        <v>14727</v>
+        <v>14830</v>
       </c>
       <c r="E132" s="37">
-        <v>10039</v>
+        <v>10106</v>
       </c>
       <c r="F132" s="37">
-        <v>4688</v>
+        <v>4724</v>
       </c>
       <c r="G132" s="38">
         <v>102341</v>
@@ -6360,13 +6359,13 @@
         <v>3000</v>
       </c>
       <c r="D133" s="37">
-        <v>6719</v>
+        <v>6954</v>
       </c>
       <c r="E133" s="37">
-        <v>4892</v>
+        <v>5075</v>
       </c>
       <c r="F133" s="37">
-        <v>1827</v>
+        <v>1879</v>
       </c>
       <c r="G133" s="38">
         <v>37890</v>
@@ -6430,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="D135" s="37">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E135" s="37">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F135" s="37">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G135" s="38">
         <v>615</v>
@@ -6465,13 +6464,13 @@
         <v>5400</v>
       </c>
       <c r="D136" s="37">
-        <v>6102</v>
+        <v>6116</v>
       </c>
       <c r="E136" s="37">
-        <v>4658</v>
+        <v>4664</v>
       </c>
       <c r="F136" s="37">
-        <v>1444</v>
+        <v>1452</v>
       </c>
       <c r="G136" s="38">
         <v>43793</v>
@@ -6570,10 +6569,10 @@
         <v>200</v>
       </c>
       <c r="D139" s="37">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E139" s="37">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F139" s="37">
         <v>71</v>
@@ -6605,13 +6604,13 @@
         <v>14325</v>
       </c>
       <c r="D140" s="37">
-        <v>8066</v>
+        <v>8150</v>
       </c>
       <c r="E140" s="37">
-        <v>7010</v>
+        <v>7053</v>
       </c>
       <c r="F140" s="37">
-        <v>1056</v>
+        <v>1097</v>
       </c>
       <c r="G140" s="38">
         <v>24188</v>
@@ -6640,13 +6639,13 @@
         <v>700</v>
       </c>
       <c r="D141" s="37">
-        <v>960</v>
+        <v>977</v>
       </c>
       <c r="E141" s="37">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="F141" s="37">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G141" s="38">
         <v>2808</v>
@@ -6675,13 +6674,13 @@
         <v>7325</v>
       </c>
       <c r="D142" s="37">
-        <v>2566</v>
+        <v>2557</v>
       </c>
       <c r="E142" s="37">
-        <v>1769</v>
+        <v>1762</v>
       </c>
       <c r="F142" s="37">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G142" s="38">
         <v>6212</v>
@@ -6710,13 +6709,13 @@
         <v>8000</v>
       </c>
       <c r="D143" s="37">
-        <v>7060</v>
+        <v>7065</v>
       </c>
       <c r="E143" s="37">
-        <v>5435</v>
+        <v>5438</v>
       </c>
       <c r="F143" s="37">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="G143" s="38">
         <v>39402</v>
@@ -6745,13 +6744,13 @@
         <v>600</v>
       </c>
       <c r="D144" s="37">
-        <v>2672</v>
+        <v>2715</v>
       </c>
       <c r="E144" s="37">
-        <v>1732</v>
+        <v>1762</v>
       </c>
       <c r="F144" s="37">
-        <v>940</v>
+        <v>953</v>
       </c>
       <c r="G144" s="38">
         <v>9740</v>
@@ -6780,13 +6779,13 @@
         <v>900</v>
       </c>
       <c r="D145" s="37">
-        <v>1885</v>
+        <v>1938</v>
       </c>
       <c r="E145" s="37">
-        <v>1462</v>
+        <v>1503</v>
       </c>
       <c r="F145" s="37">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G145" s="38">
         <v>17366</v>
@@ -6815,13 +6814,13 @@
         <v>2300</v>
       </c>
       <c r="D146" s="37">
-        <v>3018</v>
+        <v>3024</v>
       </c>
       <c r="E146" s="37">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="F146" s="37">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G146" s="38">
         <v>16004</v>
@@ -6850,13 +6849,13 @@
         <v>800</v>
       </c>
       <c r="D147" s="37">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="E147" s="37">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="F147" s="37">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G147" s="38">
         <v>13993</v>
@@ -6885,10 +6884,10 @@
         <v>1000</v>
       </c>
       <c r="D148" s="37">
-        <v>1205</v>
+        <v>1218</v>
       </c>
       <c r="E148" s="37">
-        <v>800</v>
+        <v>813</v>
       </c>
       <c r="F148" s="37">
         <v>405</v>
@@ -6920,13 +6919,13 @@
         <v>11125</v>
       </c>
       <c r="D149" s="37">
-        <v>5991</v>
+        <v>6049</v>
       </c>
       <c r="E149" s="37">
-        <v>3955</v>
+        <v>3997</v>
       </c>
       <c r="F149" s="37">
-        <v>2036</v>
+        <v>2052</v>
       </c>
       <c r="G149" s="38">
         <v>66868</v>
@@ -6955,13 +6954,13 @@
         <v>2600</v>
       </c>
       <c r="D150" s="37">
-        <v>2059</v>
+        <v>2073</v>
       </c>
       <c r="E150" s="37">
-        <v>1374</v>
+        <v>1384</v>
       </c>
       <c r="F150" s="37">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="G150" s="38">
         <v>18871</v>
@@ -6990,13 +6989,13 @@
         <v>200</v>
       </c>
       <c r="D151" s="37">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="E151" s="37">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="F151" s="37">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G151" s="38">
         <v>2520</v>
@@ -7025,13 +7024,13 @@
         <v>400</v>
       </c>
       <c r="D152" s="37">
-        <v>1610</v>
+        <v>1605</v>
       </c>
       <c r="E152" s="37">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="F152" s="37">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G152" s="38">
         <v>10055</v>
@@ -7060,13 +7059,13 @@
         <v>1400</v>
       </c>
       <c r="D153" s="37">
-        <v>3002</v>
+        <v>3028</v>
       </c>
       <c r="E153" s="37">
-        <v>2488</v>
+        <v>2503</v>
       </c>
       <c r="F153" s="37">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="G153" s="38">
         <v>18908</v>
@@ -7095,13 +7094,13 @@
         <v>0</v>
       </c>
       <c r="D154" s="37">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E154" s="37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F154" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G154" s="38">
         <v>129</v>
@@ -7130,13 +7129,13 @@
         <v>105500</v>
       </c>
       <c r="D155" s="37">
-        <v>78102</v>
+        <v>80256</v>
       </c>
       <c r="E155" s="37">
-        <v>54010</v>
+        <v>54936</v>
       </c>
       <c r="F155" s="37">
-        <v>24092</v>
+        <v>25320</v>
       </c>
       <c r="G155" s="38">
         <v>244992</v>
@@ -7165,13 +7164,13 @@
         <v>400</v>
       </c>
       <c r="D156" s="37">
-        <v>1075</v>
+        <v>1189</v>
       </c>
       <c r="E156" s="37">
-        <v>716</v>
+        <v>822</v>
       </c>
       <c r="F156" s="37">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="G156" s="38">
         <v>4496</v>
@@ -7200,10 +7199,10 @@
         <v>1000</v>
       </c>
       <c r="D157" s="37">
-        <v>932</v>
+        <v>945</v>
       </c>
       <c r="E157" s="37">
-        <v>644</v>
+        <v>657</v>
       </c>
       <c r="F157" s="37">
         <v>288</v>
@@ -7235,13 +7234,13 @@
         <v>0</v>
       </c>
       <c r="D158" s="37">
-        <v>692</v>
+        <v>703</v>
       </c>
       <c r="E158" s="37">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="F158" s="37">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G158" s="38">
         <v>8277</v>
@@ -7270,13 +7269,13 @@
         <v>800</v>
       </c>
       <c r="D159" s="37">
-        <v>1175</v>
+        <v>1185</v>
       </c>
       <c r="E159" s="37">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="F159" s="37">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G159" s="38">
         <v>4136</v>
@@ -7340,13 +7339,13 @@
         <v>3000</v>
       </c>
       <c r="D161" s="37">
-        <v>2960</v>
+        <v>2967</v>
       </c>
       <c r="E161" s="37">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="F161" s="37">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G161" s="38">
         <v>28247</v>
@@ -7375,13 +7374,13 @@
         <v>11000</v>
       </c>
       <c r="D162" s="37">
-        <v>5291</v>
+        <v>5403</v>
       </c>
       <c r="E162" s="37">
-        <v>4234</v>
+        <v>4341</v>
       </c>
       <c r="F162" s="37">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="G162" s="38">
         <v>42606</v>
@@ -7410,10 +7409,10 @@
         <v>1300</v>
       </c>
       <c r="D163" s="37">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E163" s="37">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F163" s="37">
         <v>158</v>
@@ -7445,13 +7444,13 @@
         <v>44050</v>
       </c>
       <c r="D164" s="37">
-        <v>32846</v>
+        <v>32960</v>
       </c>
       <c r="E164" s="37">
-        <v>24038</v>
+        <v>24099</v>
       </c>
       <c r="F164" s="37">
-        <v>8808</v>
+        <v>8861</v>
       </c>
       <c r="G164" s="38">
         <v>200781</v>
@@ -7480,13 +7479,13 @@
         <v>100</v>
       </c>
       <c r="D165" s="37">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E165" s="37">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F165" s="37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G165" s="38">
         <v>616</v>
@@ -7515,13 +7514,13 @@
         <v>2700</v>
       </c>
       <c r="D166" s="37">
-        <v>6387</v>
+        <v>6425</v>
       </c>
       <c r="E166" s="37">
-        <v>4629</v>
+        <v>4652</v>
       </c>
       <c r="F166" s="37">
-        <v>1758</v>
+        <v>1773</v>
       </c>
       <c r="G166" s="38">
         <v>41263</v>
@@ -7585,13 +7584,13 @@
         <v>42325</v>
       </c>
       <c r="D168" s="37">
-        <v>28073</v>
+        <v>29435</v>
       </c>
       <c r="E168" s="37">
-        <v>22710</v>
+        <v>23083</v>
       </c>
       <c r="F168" s="37">
-        <v>5363</v>
+        <v>6352</v>
       </c>
       <c r="G168" s="38">
         <v>131025</v>
@@ -7620,13 +7619,13 @@
         <v>2900</v>
       </c>
       <c r="D169" s="37">
-        <v>3272</v>
+        <v>3291</v>
       </c>
       <c r="E169" s="37">
-        <v>2117</v>
+        <v>2132</v>
       </c>
       <c r="F169" s="37">
-        <v>1155</v>
+        <v>1159</v>
       </c>
       <c r="G169" s="38">
         <v>19689</v>
@@ -7655,13 +7654,13 @@
         <v>300</v>
       </c>
       <c r="D170" s="37">
-        <v>849</v>
+        <v>878</v>
       </c>
       <c r="E170" s="37">
-        <v>584</v>
+        <v>611</v>
       </c>
       <c r="F170" s="37">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G170" s="38">
         <v>4006</v>
@@ -7690,13 +7689,13 @@
         <v>1000</v>
       </c>
       <c r="D171" s="37">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="E171" s="37">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F171" s="37">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G171" s="38">
         <v>6958</v>
@@ -7725,13 +7724,13 @@
         <v>2550</v>
       </c>
       <c r="D172" s="37">
-        <v>3259</v>
+        <v>3273</v>
       </c>
       <c r="E172" s="37">
         <v>2327</v>
       </c>
       <c r="F172" s="37">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="G172" s="38">
         <v>15872</v>
@@ -7760,13 +7759,13 @@
         <v>84900</v>
       </c>
       <c r="D173" s="37">
-        <v>70704</v>
+        <v>71545</v>
       </c>
       <c r="E173" s="37">
-        <v>48429</v>
+        <v>48955</v>
       </c>
       <c r="F173" s="37">
-        <v>22275</v>
+        <v>22590</v>
       </c>
       <c r="G173" s="38">
         <v>467232</v>
@@ -7795,13 +7794,13 @@
         <v>1500</v>
       </c>
       <c r="D174" s="37">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="E174" s="37">
         <v>4020</v>
       </c>
       <c r="F174" s="37">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="G174" s="38">
         <v>14986</v>
@@ -7830,13 +7829,13 @@
         <v>700</v>
       </c>
       <c r="D175" s="37">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="E175" s="37">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="F175" s="37">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G175" s="38">
         <v>9830</v>
@@ -7865,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="D176" s="37">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E176" s="37">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F176" s="37">
         <v>46</v>
@@ -7900,13 +7899,13 @@
         <v>10500</v>
       </c>
       <c r="D177" s="37">
-        <v>10217</v>
+        <v>10219</v>
       </c>
       <c r="E177" s="37">
         <v>6514</v>
       </c>
       <c r="F177" s="37">
-        <v>3703</v>
+        <v>3705</v>
       </c>
       <c r="G177" s="38">
         <v>51773</v>
@@ -7935,13 +7934,13 @@
         <v>9200</v>
       </c>
       <c r="D178" s="37">
-        <v>7892</v>
+        <v>7920</v>
       </c>
       <c r="E178" s="37">
-        <v>6620</v>
+        <v>6643</v>
       </c>
       <c r="F178" s="37">
-        <v>1272</v>
+        <v>1277</v>
       </c>
       <c r="G178" s="38">
         <v>38360</v>
@@ -7970,13 +7969,13 @@
         <v>900</v>
       </c>
       <c r="D179" s="37">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="E179" s="37">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="F179" s="37">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G179" s="38">
         <v>11298</v>
@@ -8005,13 +8004,13 @@
         <v>3200</v>
       </c>
       <c r="D180" s="37">
-        <v>2428</v>
+        <v>2446</v>
       </c>
       <c r="E180" s="37">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="F180" s="37">
-        <v>717</v>
+        <v>733</v>
       </c>
       <c r="G180" s="38">
         <v>11321</v>
@@ -8040,13 +8039,13 @@
         <v>85175</v>
       </c>
       <c r="D181" s="37">
-        <v>48405</v>
+        <v>49949</v>
       </c>
       <c r="E181" s="37">
-        <v>30903</v>
+        <v>31810</v>
       </c>
       <c r="F181" s="37">
-        <v>17502</v>
+        <v>18139</v>
       </c>
       <c r="G181" s="38">
         <v>284366</v>
@@ -8075,13 +8074,13 @@
         <v>1500</v>
       </c>
       <c r="D182" s="37">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="E182" s="37">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="F182" s="37">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="G182" s="38">
         <v>7106</v>
@@ -8110,10 +8109,10 @@
         <v>300</v>
       </c>
       <c r="D183" s="37">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E183" s="37">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F183" s="37">
         <v>160</v>
@@ -8145,13 +8144,13 @@
         <v>2000</v>
       </c>
       <c r="D184" s="37">
-        <v>6440</v>
+        <v>6674</v>
       </c>
       <c r="E184" s="37">
-        <v>5300</v>
+        <v>5468</v>
       </c>
       <c r="F184" s="37">
-        <v>1140</v>
+        <v>1206</v>
       </c>
       <c r="G184" s="38">
         <v>65087</v>
@@ -8180,13 +8179,13 @@
         <v>2200</v>
       </c>
       <c r="D185" s="37">
-        <v>2220</v>
+        <v>2237</v>
       </c>
       <c r="E185" s="37">
-        <v>1585</v>
+        <v>1600</v>
       </c>
       <c r="F185" s="37">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="G185" s="38">
         <v>23207</v>
@@ -8215,13 +8214,13 @@
         <v>1700</v>
       </c>
       <c r="D186" s="37">
-        <v>1854</v>
+        <v>1858</v>
       </c>
       <c r="E186" s="37">
         <v>1319</v>
       </c>
       <c r="F186" s="37">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="G186" s="38">
         <v>18462</v>
@@ -8250,13 +8249,13 @@
         <v>19250</v>
       </c>
       <c r="D187" s="37">
-        <v>18769</v>
+        <v>19083</v>
       </c>
       <c r="E187" s="37">
-        <v>13013</v>
+        <v>13215</v>
       </c>
       <c r="F187" s="37">
-        <v>5756</v>
+        <v>5868</v>
       </c>
       <c r="G187" s="38">
         <v>111686</v>
@@ -8285,13 +8284,13 @@
         <v>900</v>
       </c>
       <c r="D188" s="37">
-        <v>1989</v>
+        <v>2024</v>
       </c>
       <c r="E188" s="37">
-        <v>1362</v>
+        <v>1379</v>
       </c>
       <c r="F188" s="37">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="G188" s="38">
         <v>7222</v>
@@ -8320,13 +8319,13 @@
         <v>2000</v>
       </c>
       <c r="D189" s="37">
-        <v>3008</v>
+        <v>3028</v>
       </c>
       <c r="E189" s="37">
-        <v>2415</v>
+        <v>2427</v>
       </c>
       <c r="F189" s="37">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G189" s="38">
         <v>12317</v>
@@ -8355,13 +8354,13 @@
         <v>4300</v>
       </c>
       <c r="D190" s="37">
-        <v>6491</v>
+        <v>6523</v>
       </c>
       <c r="E190" s="37">
-        <v>4849</v>
+        <v>4869</v>
       </c>
       <c r="F190" s="37">
-        <v>1642</v>
+        <v>1654</v>
       </c>
       <c r="G190" s="38">
         <v>42276</v>
@@ -8390,13 +8389,13 @@
         <v>89325</v>
       </c>
       <c r="D191" s="37">
-        <v>27175</v>
+        <v>27278</v>
       </c>
       <c r="E191" s="37">
-        <v>17403</v>
+        <v>17457</v>
       </c>
       <c r="F191" s="37">
-        <v>9772</v>
+        <v>9821</v>
       </c>
       <c r="G191" s="38">
         <v>88673</v>
@@ -8425,10 +8424,10 @@
         <v>1500</v>
       </c>
       <c r="D192" s="37">
-        <v>1772</v>
+        <v>1774</v>
       </c>
       <c r="E192" s="37">
-        <v>1554</v>
+        <v>1556</v>
       </c>
       <c r="F192" s="37">
         <v>218</v>
@@ -8460,13 +8459,13 @@
         <v>500</v>
       </c>
       <c r="D193" s="37">
-        <v>1051</v>
+        <v>1062</v>
       </c>
       <c r="E193" s="37">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="F193" s="37">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="G193" s="38">
         <v>10277</v>
@@ -8495,13 +8494,13 @@
         <v>6200</v>
       </c>
       <c r="D194" s="37">
-        <v>41028</v>
+        <v>41296</v>
       </c>
       <c r="E194" s="37">
-        <v>25700</v>
+        <v>25841</v>
       </c>
       <c r="F194" s="37">
-        <v>15328</v>
+        <v>15455</v>
       </c>
       <c r="G194" s="38">
         <v>108431</v>
@@ -8530,10 +8529,10 @@
         <v>300</v>
       </c>
       <c r="D195" s="37">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E195" s="37">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F195" s="37">
         <v>113</v>
@@ -8565,10 +8564,10 @@
         <v>200</v>
       </c>
       <c r="D196" s="37">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E196" s="37">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F196" s="37">
         <v>196</v>
@@ -8603,10 +8602,10 @@
         <v>1739</v>
       </c>
       <c r="E197" s="37">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="F197" s="37">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="G197" s="38">
         <v>9965</v>
@@ -8635,13 +8634,13 @@
         <v>7725</v>
       </c>
       <c r="D198" s="37">
-        <v>4512</v>
+        <v>4517</v>
       </c>
       <c r="E198" s="37">
-        <v>3132</v>
+        <v>3131</v>
       </c>
       <c r="F198" s="37">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="G198" s="38">
         <v>12781</v>
@@ -8670,10 +8669,10 @@
         <v>700</v>
       </c>
       <c r="D199" s="37">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E199" s="37">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F199" s="37">
         <v>421</v>
@@ -8705,13 +8704,13 @@
         <v>0</v>
       </c>
       <c r="D200" s="37">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E200" s="37">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F200" s="37">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G200" s="38">
         <v>672</v>
@@ -8740,13 +8739,13 @@
         <v>1200</v>
       </c>
       <c r="D201" s="37">
-        <v>1843</v>
+        <v>1870</v>
       </c>
       <c r="E201" s="37">
-        <v>1376</v>
+        <v>1399</v>
       </c>
       <c r="F201" s="37">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="G201" s="38">
         <v>13474</v>
@@ -8775,13 +8774,13 @@
         <v>8175</v>
       </c>
       <c r="D202" s="37">
-        <v>15832</v>
+        <v>15975</v>
       </c>
       <c r="E202" s="37">
-        <v>11551</v>
+        <v>11633</v>
       </c>
       <c r="F202" s="37">
-        <v>4281</v>
+        <v>4342</v>
       </c>
       <c r="G202" s="38">
         <v>80325</v>
@@ -8810,13 +8809,13 @@
         <v>1800</v>
       </c>
       <c r="D203" s="37">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="E203" s="37">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="F203" s="37">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G203" s="38">
         <v>8184</v>
@@ -8845,13 +8844,13 @@
         <v>2000</v>
       </c>
       <c r="D204" s="37">
-        <v>4500</v>
+        <v>4540</v>
       </c>
       <c r="E204" s="37">
-        <v>3340</v>
+        <v>3362</v>
       </c>
       <c r="F204" s="37">
-        <v>1160</v>
+        <v>1178</v>
       </c>
       <c r="G204" s="38">
         <v>43777</v>
@@ -8880,13 +8879,13 @@
         <v>1600</v>
       </c>
       <c r="D205" s="37">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="E205" s="37">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="F205" s="37">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G205" s="38">
         <v>8871</v>
@@ -8915,10 +8914,10 @@
         <v>1200</v>
       </c>
       <c r="D206" s="37">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="E206" s="37">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="F206" s="37">
         <v>368</v>
@@ -8950,13 +8949,13 @@
         <v>1800</v>
       </c>
       <c r="D207" s="37">
-        <v>2529</v>
+        <v>2554</v>
       </c>
       <c r="E207" s="37">
-        <v>1786</v>
+        <v>1808</v>
       </c>
       <c r="F207" s="37">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="G207" s="38">
         <v>23444</v>
@@ -8985,13 +8984,13 @@
         <v>4200</v>
       </c>
       <c r="D208" s="37">
-        <v>8205</v>
+        <v>8326</v>
       </c>
       <c r="E208" s="37">
-        <v>5995</v>
+        <v>6063</v>
       </c>
       <c r="F208" s="37">
-        <v>2210</v>
+        <v>2263</v>
       </c>
       <c r="G208" s="38">
         <v>51116</v>
@@ -9020,13 +9019,13 @@
         <v>300</v>
       </c>
       <c r="D209" s="37">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E209" s="37">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F209" s="37">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G209" s="38">
         <v>5000</v>
@@ -9055,10 +9054,10 @@
         <v>400</v>
       </c>
       <c r="D210" s="37">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E210" s="37">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F210" s="37">
         <v>114</v>
@@ -9090,13 +9089,13 @@
         <v>3925</v>
       </c>
       <c r="D211" s="37">
-        <v>2080</v>
+        <v>2213</v>
       </c>
       <c r="E211" s="37">
-        <v>1450</v>
+        <v>1528</v>
       </c>
       <c r="F211" s="37">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="G211" s="38">
         <v>13000</v>
@@ -9125,10 +9124,10 @@
         <v>300</v>
       </c>
       <c r="D212" s="37">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E212" s="37">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F212" s="37">
         <v>57</v>
@@ -9160,13 +9159,13 @@
         <v>1700</v>
       </c>
       <c r="D213" s="37">
-        <v>1738</v>
+        <v>1742</v>
       </c>
       <c r="E213" s="37">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="F213" s="37">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G213" s="38">
         <v>19449</v>
@@ -9230,13 +9229,13 @@
         <v>74400</v>
       </c>
       <c r="D215" s="37">
-        <v>38617</v>
+        <v>38680</v>
       </c>
       <c r="E215" s="37">
-        <v>26045</v>
+        <v>26088</v>
       </c>
       <c r="F215" s="37">
-        <v>12572</v>
+        <v>12592</v>
       </c>
       <c r="G215" s="38">
         <v>182283</v>
@@ -9265,13 +9264,13 @@
         <v>600</v>
       </c>
       <c r="D216" s="37">
-        <v>1292</v>
+        <v>1299</v>
       </c>
       <c r="E216" s="37">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="F216" s="37">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="G216" s="38">
         <v>7386</v>
@@ -9300,13 +9299,13 @@
         <v>8000</v>
       </c>
       <c r="D217" s="37">
-        <v>7939</v>
+        <v>8041</v>
       </c>
       <c r="E217" s="37">
-        <v>5810</v>
+        <v>5887</v>
       </c>
       <c r="F217" s="37">
-        <v>2129</v>
+        <v>2154</v>
       </c>
       <c r="G217" s="38">
         <v>45765</v>
@@ -9335,13 +9334,13 @@
         <v>900</v>
       </c>
       <c r="D218" s="37">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E218" s="37">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="F218" s="37">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G218" s="38">
         <v>7542</v>
@@ -9370,13 +9369,13 @@
         <v>100</v>
       </c>
       <c r="D219" s="37">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E219" s="37">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F219" s="37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G219" s="38">
         <v>975</v>
@@ -9405,10 +9404,10 @@
         <v>500</v>
       </c>
       <c r="D220" s="37">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E220" s="37">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F220" s="37">
         <v>73</v>
@@ -9475,13 +9474,13 @@
         <v>500</v>
       </c>
       <c r="D222" s="37">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="E222" s="37">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="F222" s="37">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G222" s="38">
         <v>5764</v>
@@ -9510,13 +9509,13 @@
         <v>440250</v>
       </c>
       <c r="D223" s="37">
-        <v>266773</v>
+        <v>275321</v>
       </c>
       <c r="E223" s="37">
-        <v>174788</v>
+        <v>180391</v>
       </c>
       <c r="F223" s="37">
-        <v>91985</v>
+        <v>94930</v>
       </c>
       <c r="G223" s="38">
         <v>1617160</v>
@@ -9545,13 +9544,13 @@
         <v>30525</v>
       </c>
       <c r="D224" s="37">
-        <v>23959</v>
+        <v>24150</v>
       </c>
       <c r="E224" s="37">
-        <v>17729</v>
+        <v>17870</v>
       </c>
       <c r="F224" s="37">
-        <v>6230</v>
+        <v>6280</v>
       </c>
       <c r="G224" s="38">
         <v>107257</v>
@@ -9580,10 +9579,10 @@
         <v>0</v>
       </c>
       <c r="D225" s="37">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E225" s="37">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F225" s="37">
         <v>14</v>
@@ -9615,13 +9614,13 @@
         <v>3650</v>
       </c>
       <c r="D226" s="37">
-        <v>2809</v>
+        <v>2847</v>
       </c>
       <c r="E226" s="37">
-        <v>1944</v>
+        <v>1964</v>
       </c>
       <c r="F226" s="37">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="G226" s="38">
         <v>9307</v>
@@ -9650,13 +9649,13 @@
         <v>600</v>
       </c>
       <c r="D227" s="37">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E227" s="37">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F227" s="37">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G227" s="38">
         <v>1247</v>
@@ -9685,13 +9684,13 @@
         <v>5200</v>
       </c>
       <c r="D228" s="37">
-        <v>2952</v>
+        <v>2956</v>
       </c>
       <c r="E228" s="37">
         <v>1980</v>
       </c>
       <c r="F228" s="37">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="G228" s="38">
         <v>24323</v>
@@ -9720,13 +9719,13 @@
         <v>28400</v>
       </c>
       <c r="D229" s="37">
-        <v>23479</v>
+        <v>23581</v>
       </c>
       <c r="E229" s="37">
-        <v>15698</v>
+        <v>15760</v>
       </c>
       <c r="F229" s="37">
-        <v>7781</v>
+        <v>7821</v>
       </c>
       <c r="G229" s="38">
         <v>93752</v>
@@ -9755,13 +9754,13 @@
         <v>242000</v>
       </c>
       <c r="D230" s="37">
-        <v>156636</v>
+        <v>157579</v>
       </c>
       <c r="E230" s="37">
-        <v>108749</v>
+        <v>109252</v>
       </c>
       <c r="F230" s="37">
-        <v>47887</v>
+        <v>48327</v>
       </c>
       <c r="G230" s="38">
         <v>1032386</v>
@@ -9790,10 +9789,10 @@
         <v>2850</v>
       </c>
       <c r="D231" s="37">
-        <v>2149</v>
+        <v>2179</v>
       </c>
       <c r="E231" s="37">
-        <v>1574</v>
+        <v>1604</v>
       </c>
       <c r="F231" s="37">
         <v>575</v>
@@ -9828,10 +9827,10 @@
         <v>3177</v>
       </c>
       <c r="E232" s="37">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="F232" s="37">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="G232" s="38">
         <v>17963</v>
@@ -9860,13 +9859,13 @@
         <v>1600</v>
       </c>
       <c r="D233" s="37">
-        <v>3356</v>
+        <v>3392</v>
       </c>
       <c r="E233" s="37">
-        <v>2448</v>
+        <v>2463</v>
       </c>
       <c r="F233" s="37">
-        <v>908</v>
+        <v>929</v>
       </c>
       <c r="G233" s="38">
         <v>33011</v>
@@ -9895,10 +9894,10 @@
         <v>500</v>
       </c>
       <c r="D234" s="37">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="E234" s="37">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="F234" s="37">
         <v>159</v>
@@ -9930,13 +9929,13 @@
         <v>9325</v>
       </c>
       <c r="D235" s="37">
-        <v>5841</v>
+        <v>5842</v>
       </c>
       <c r="E235" s="37">
-        <v>4087</v>
+        <v>4086</v>
       </c>
       <c r="F235" s="37">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="G235" s="38">
         <v>20379</v>
@@ -9965,13 +9964,13 @@
         <v>7200</v>
       </c>
       <c r="D236" s="37">
-        <v>5768</v>
+        <v>5779</v>
       </c>
       <c r="E236" s="37">
-        <v>4525</v>
+        <v>4533</v>
       </c>
       <c r="F236" s="37">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="G236" s="38">
         <v>36546</v>
@@ -10000,13 +9999,13 @@
         <v>3000</v>
       </c>
       <c r="D237" s="37">
-        <v>5635</v>
+        <v>5737</v>
       </c>
       <c r="E237" s="37">
-        <v>3885</v>
+        <v>3970</v>
       </c>
       <c r="F237" s="37">
-        <v>1750</v>
+        <v>1767</v>
       </c>
       <c r="G237" s="38">
         <v>45216</v>
@@ -10035,13 +10034,13 @@
         <v>17850</v>
       </c>
       <c r="D238" s="37">
-        <v>14366</v>
+        <v>14521</v>
       </c>
       <c r="E238" s="37">
-        <v>10457</v>
+        <v>10533</v>
       </c>
       <c r="F238" s="37">
-        <v>3909</v>
+        <v>3988</v>
       </c>
       <c r="G238" s="38">
         <v>71388</v>
@@ -10070,13 +10069,13 @@
         <v>5900</v>
       </c>
       <c r="D239" s="37">
-        <v>5627</v>
+        <v>5679</v>
       </c>
       <c r="E239" s="37">
-        <v>4039</v>
+        <v>4056</v>
       </c>
       <c r="F239" s="37">
-        <v>1588</v>
+        <v>1623</v>
       </c>
       <c r="G239" s="38">
         <v>63471</v>
@@ -10105,13 +10104,13 @@
         <v>3400</v>
       </c>
       <c r="D240" s="37">
-        <v>4154</v>
+        <v>4202</v>
       </c>
       <c r="E240" s="37">
-        <v>3050</v>
+        <v>3083</v>
       </c>
       <c r="F240" s="37">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="G240" s="38">
         <v>43350</v>
@@ -10140,13 +10139,13 @@
         <v>700</v>
       </c>
       <c r="D241" s="37">
-        <v>1688</v>
+        <v>1731</v>
       </c>
       <c r="E241" s="37">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="F241" s="37">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="G241" s="38">
         <v>8921</v>
@@ -10175,13 +10174,13 @@
         <v>19000</v>
       </c>
       <c r="D242" s="37">
-        <v>6278</v>
+        <v>6335</v>
       </c>
       <c r="E242" s="37">
-        <v>5057</v>
+        <v>5111</v>
       </c>
       <c r="F242" s="37">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="G242" s="38">
         <v>29086</v>
@@ -10210,13 +10209,13 @@
         <v>52100</v>
       </c>
       <c r="D243" s="37">
-        <v>42096</v>
+        <v>43205</v>
       </c>
       <c r="E243" s="37">
-        <v>30411</v>
+        <v>30879</v>
       </c>
       <c r="F243" s="37">
-        <v>11685</v>
+        <v>12326</v>
       </c>
       <c r="G243" s="38">
         <v>196916</v>
@@ -10245,13 +10244,13 @@
         <v>3800</v>
       </c>
       <c r="D244" s="37">
-        <v>4028</v>
+        <v>4050</v>
       </c>
       <c r="E244" s="37">
-        <v>2764</v>
+        <v>2778</v>
       </c>
       <c r="F244" s="37">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="G244" s="38">
         <v>32110</v>
@@ -10280,13 +10279,13 @@
         <v>1000</v>
       </c>
       <c r="D245" s="37">
-        <v>1032</v>
+        <v>1056</v>
       </c>
       <c r="E245" s="37">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="F245" s="37">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G245" s="38">
         <v>3915</v>
@@ -10315,13 +10314,13 @@
         <v>31350</v>
       </c>
       <c r="D246" s="37">
-        <v>25686</v>
+        <v>25733</v>
       </c>
       <c r="E246" s="37">
-        <v>17019</v>
+        <v>17053</v>
       </c>
       <c r="F246" s="37">
-        <v>8667</v>
+        <v>8680</v>
       </c>
       <c r="G246" s="38">
         <v>105631</v>
@@ -10350,13 +10349,13 @@
         <v>5800</v>
       </c>
       <c r="D247" s="37">
-        <v>3668</v>
+        <v>3662</v>
       </c>
       <c r="E247" s="37">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="F247" s="37">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="G247" s="38">
         <v>10361</v>
@@ -10385,13 +10384,13 @@
         <v>900</v>
       </c>
       <c r="D248" s="37">
-        <v>2534</v>
+        <v>2568</v>
       </c>
       <c r="E248" s="37">
-        <v>1897</v>
+        <v>1925</v>
       </c>
       <c r="F248" s="37">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="G248" s="38">
         <v>16897</v>
@@ -10420,13 +10419,13 @@
         <v>82850</v>
       </c>
       <c r="D249" s="37">
-        <v>65611</v>
+        <v>66286</v>
       </c>
       <c r="E249" s="37">
-        <v>46346</v>
+        <v>46727</v>
       </c>
       <c r="F249" s="37">
-        <v>19265</v>
+        <v>19559</v>
       </c>
       <c r="G249" s="38">
         <v>458433</v>
@@ -10455,13 +10454,13 @@
         <v>4500</v>
       </c>
       <c r="D250" s="37">
-        <v>6576</v>
+        <v>6628</v>
       </c>
       <c r="E250" s="37">
-        <v>4243</v>
+        <v>4281</v>
       </c>
       <c r="F250" s="37">
-        <v>2333</v>
+        <v>2347</v>
       </c>
       <c r="G250" s="38">
         <v>40488</v>
@@ -10490,13 +10489,13 @@
         <v>500</v>
       </c>
       <c r="D251" s="37">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="E251" s="37">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F251" s="37">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G251" s="38">
         <v>5954</v>
@@ -10525,13 +10524,13 @@
         <v>7950</v>
       </c>
       <c r="D252" s="37">
-        <v>7892</v>
+        <v>7930</v>
       </c>
       <c r="E252" s="37">
-        <v>4717</v>
+        <v>4747</v>
       </c>
       <c r="F252" s="37">
-        <v>3175</v>
+        <v>3183</v>
       </c>
       <c r="G252" s="38">
         <v>54722</v>
@@ -10560,13 +10559,13 @@
         <v>2500</v>
       </c>
       <c r="D253" s="37">
-        <v>5745</v>
+        <v>5792</v>
       </c>
       <c r="E253" s="37">
-        <v>4134</v>
+        <v>4164</v>
       </c>
       <c r="F253" s="37">
-        <v>1611</v>
+        <v>1628</v>
       </c>
       <c r="G253" s="38">
         <v>38005</v>
@@ -10595,13 +10594,13 @@
         <v>800</v>
       </c>
       <c r="D254" s="37">
-        <v>1302</v>
+        <v>1313</v>
       </c>
       <c r="E254" s="37">
-        <v>858</v>
+        <v>867</v>
       </c>
       <c r="F254" s="37">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G254" s="38">
         <v>6135</v>
@@ -10630,13 +10629,13 @@
         <v>3200</v>
       </c>
       <c r="D255" s="37">
-        <v>2816</v>
+        <v>2822</v>
       </c>
       <c r="E255" s="37">
         <v>1962</v>
       </c>
       <c r="F255" s="37">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="G255" s="38">
         <v>14219</v>
@@ -10665,13 +10664,13 @@
         <v>1100</v>
       </c>
       <c r="D256" s="37">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="E256" s="37">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="F256" s="37">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="G256" s="38">
         <v>9981</v>
@@ -10700,13 +10699,13 @@
         <v>200</v>
       </c>
       <c r="D257" s="37">
-        <v>2748</v>
+        <v>2764</v>
       </c>
       <c r="E257" s="37">
-        <v>2370</v>
+        <v>2377</v>
       </c>
       <c r="F257" s="37">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="G257" s="38">
         <v>8840</v>
@@ -10731,17 +10730,17 @@
       <c r="B258" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="C258" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="D258" s="41">
-        <v>286638</v>
-      </c>
-      <c r="E258" s="41">
-        <v>236996</v>
-      </c>
-      <c r="F258" s="41">
-        <v>49642</v>
+      <c r="C258" s="37">
+        <v>720525</v>
+      </c>
+      <c r="D258" s="37">
+        <v>271165</v>
+      </c>
+      <c r="E258" s="37">
+        <v>225893</v>
+      </c>
+      <c r="F258" s="37">
+        <v>45272</v>
       </c>
       <c r="G258" s="38"/>
       <c r="H258" s="38"/>
@@ -10777,14 +10776,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.796875" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="24.19921875" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="18.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="22" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="22" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>272</v>
       </c>
@@ -10804,7 +10803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A2" s="39" t="s">
         <v>275</v>
       </c>
@@ -10815,16 +10814,16 @@
         <v>292</v>
       </c>
       <c r="D2" s="37">
-        <v>59471</v>
+        <v>59782</v>
       </c>
       <c r="E2" s="37">
-        <v>37769</v>
+        <v>37937</v>
       </c>
       <c r="F2" s="37">
-        <v>21702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>21845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>275</v>
       </c>
@@ -10835,16 +10834,16 @@
         <v>293</v>
       </c>
       <c r="D3" s="37">
-        <v>43176</v>
+        <v>43434</v>
       </c>
       <c r="E3" s="37">
-        <v>28263</v>
+        <v>28383</v>
       </c>
       <c r="F3" s="37">
-        <v>14913</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>15051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>275</v>
       </c>
@@ -10855,16 +10854,16 @@
         <v>291</v>
       </c>
       <c r="D4" s="37">
-        <v>149079</v>
+        <v>152094</v>
       </c>
       <c r="E4" s="37">
-        <v>102135</v>
+        <v>103707</v>
       </c>
       <c r="F4" s="37">
-        <v>46944</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>48387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>275</v>
       </c>
@@ -10875,16 +10874,16 @@
         <v>295</v>
       </c>
       <c r="D5" s="37">
-        <v>239912</v>
+        <v>241897</v>
       </c>
       <c r="E5" s="37">
-        <v>153992</v>
+        <v>154937</v>
       </c>
       <c r="F5" s="37">
-        <v>85920</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>86960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>275</v>
       </c>
@@ -10895,16 +10894,16 @@
         <v>294</v>
       </c>
       <c r="D6" s="37">
-        <v>80063</v>
+        <v>80531</v>
       </c>
       <c r="E6" s="37">
-        <v>53907</v>
+        <v>54035</v>
       </c>
       <c r="F6" s="37">
-        <v>26156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+        <v>26496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>275</v>
       </c>
@@ -10915,17 +10914,17 @@
         <v>280</v>
       </c>
       <c r="D7" s="37">
-        <v>322039</v>
+        <v>322926</v>
       </c>
       <c r="E7" s="37">
-        <v>209510</v>
+        <v>209617</v>
       </c>
       <c r="F7" s="37">
-        <v>112529</v>
+        <v>113309</v>
       </c>
       <c r="O7" s="30"/>
     </row>
-    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A8" s="39" t="s">
         <v>275</v>
       </c>
@@ -10936,17 +10935,17 @@
         <v>292</v>
       </c>
       <c r="D8" s="37">
-        <v>30011</v>
+        <v>30152</v>
       </c>
       <c r="E8" s="37">
-        <v>20311</v>
+        <v>20391</v>
       </c>
       <c r="F8" s="37">
-        <v>9700</v>
+        <v>9761</v>
       </c>
       <c r="O8" s="30"/>
     </row>
-    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
         <v>275</v>
       </c>
@@ -10957,17 +10956,17 @@
         <v>293</v>
       </c>
       <c r="D9" s="37">
-        <v>37842</v>
+        <v>38143</v>
       </c>
       <c r="E9" s="37">
-        <v>26373</v>
+        <v>26546</v>
       </c>
       <c r="F9" s="37">
-        <v>11469</v>
+        <v>11597</v>
       </c>
       <c r="O9" s="30"/>
     </row>
-    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>275</v>
       </c>
@@ -10978,17 +10977,17 @@
         <v>291</v>
       </c>
       <c r="D10" s="37">
-        <v>86627</v>
+        <v>88569</v>
       </c>
       <c r="E10" s="37">
-        <v>63972</v>
+        <v>65141</v>
       </c>
       <c r="F10" s="37">
-        <v>22655</v>
+        <v>23428</v>
       </c>
       <c r="O10" s="30"/>
     </row>
-    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>275</v>
       </c>
@@ -10999,17 +10998,17 @@
         <v>295</v>
       </c>
       <c r="D11" s="37">
-        <v>178110</v>
+        <v>179943</v>
       </c>
       <c r="E11" s="37">
-        <v>124815</v>
+        <v>125875</v>
       </c>
       <c r="F11" s="37">
-        <v>53295</v>
+        <v>54068</v>
       </c>
       <c r="O11" s="30"/>
     </row>
-    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>275</v>
       </c>
@@ -11020,17 +11019,17 @@
         <v>294</v>
       </c>
       <c r="D12" s="37">
-        <v>51286</v>
+        <v>51472</v>
       </c>
       <c r="E12" s="37">
-        <v>36070</v>
+        <v>36139</v>
       </c>
       <c r="F12" s="37">
-        <v>15216</v>
+        <v>15333</v>
       </c>
       <c r="O12" s="30"/>
     </row>
-    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>275</v>
       </c>
@@ -11041,17 +11040,17 @@
         <v>280</v>
       </c>
       <c r="D13" s="37">
-        <v>208380</v>
+        <v>209013</v>
       </c>
       <c r="E13" s="37">
-        <v>143226</v>
+        <v>143088</v>
       </c>
       <c r="F13" s="37">
-        <v>65154</v>
+        <v>65925</v>
       </c>
       <c r="O13" s="30"/>
     </row>
-    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="23" customFormat="1" ht="13.75" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>275</v>
       </c>
@@ -11062,13 +11061,13 @@
         <v>292</v>
       </c>
       <c r="D14" s="37">
-        <v>34091</v>
+        <v>34234</v>
       </c>
       <c r="E14" s="37">
-        <v>24822</v>
+        <v>24901</v>
       </c>
       <c r="F14" s="37">
-        <v>9269</v>
+        <v>9333</v>
       </c>
       <c r="O14" s="30"/>
     </row>
@@ -11083,13 +11082,13 @@
         <v>293</v>
       </c>
       <c r="D15" s="37">
-        <v>38985</v>
+        <v>39369</v>
       </c>
       <c r="E15" s="37">
-        <v>30269</v>
+        <v>30468</v>
       </c>
       <c r="F15" s="37">
-        <v>8716</v>
+        <v>8901</v>
       </c>
       <c r="O15" s="30"/>
     </row>
@@ -11104,13 +11103,13 @@
         <v>291</v>
       </c>
       <c r="D16" s="37">
-        <v>81220</v>
+        <v>82992</v>
       </c>
       <c r="E16" s="37">
-        <v>62890</v>
+        <v>63987</v>
       </c>
       <c r="F16" s="37">
-        <v>18330</v>
+        <v>19005</v>
       </c>
       <c r="O16" s="30"/>
     </row>
@@ -11125,13 +11124,13 @@
         <v>295</v>
       </c>
       <c r="D17" s="37">
-        <v>312435</v>
+        <v>315480</v>
       </c>
       <c r="E17" s="37">
-        <v>234029</v>
+        <v>235636</v>
       </c>
       <c r="F17" s="37">
-        <v>78406</v>
+        <v>79844</v>
       </c>
       <c r="O17" s="30"/>
     </row>
@@ -11146,13 +11145,13 @@
         <v>294</v>
       </c>
       <c r="D18" s="37">
-        <v>59350</v>
+        <v>59602</v>
       </c>
       <c r="E18" s="37">
-        <v>42882</v>
+        <v>42997</v>
       </c>
       <c r="F18" s="37">
-        <v>16468</v>
+        <v>16605</v>
       </c>
       <c r="O18" s="30"/>
     </row>
@@ -11167,13 +11166,13 @@
         <v>280</v>
       </c>
       <c r="D19" s="37">
-        <v>228827</v>
+        <v>228970</v>
       </c>
       <c r="E19" s="37">
-        <v>169049</v>
+        <v>168125</v>
       </c>
       <c r="F19" s="37">
-        <v>59778</v>
+        <v>60845</v>
       </c>
       <c r="O19" s="30"/>
     </row>
@@ -11188,13 +11187,13 @@
         <v>292</v>
       </c>
       <c r="D20" s="37">
-        <v>7242</v>
+        <v>7308</v>
       </c>
       <c r="E20" s="37">
-        <v>5181</v>
+        <v>5212</v>
       </c>
       <c r="F20" s="37">
-        <v>2061</v>
+        <v>2096</v>
       </c>
       <c r="O20" s="30"/>
     </row>
@@ -11209,13 +11208,13 @@
         <v>293</v>
       </c>
       <c r="D21" s="37">
-        <v>8518</v>
+        <v>8664</v>
       </c>
       <c r="E21" s="37">
-        <v>6568</v>
+        <v>6644</v>
       </c>
       <c r="F21" s="37">
-        <v>1950</v>
+        <v>2020</v>
       </c>
       <c r="O21" s="30"/>
     </row>
@@ -11230,13 +11229,13 @@
         <v>291</v>
       </c>
       <c r="D22" s="37">
-        <v>20006</v>
+        <v>20651</v>
       </c>
       <c r="E22" s="37">
-        <v>15722</v>
+        <v>16123</v>
       </c>
       <c r="F22" s="37">
-        <v>4284</v>
+        <v>4528</v>
       </c>
       <c r="O22" s="30"/>
     </row>
@@ -11251,13 +11250,13 @@
         <v>295</v>
       </c>
       <c r="D23" s="37">
-        <v>93017</v>
+        <v>94383</v>
       </c>
       <c r="E23" s="37">
-        <v>68429</v>
+        <v>69157</v>
       </c>
       <c r="F23" s="37">
-        <v>24588</v>
+        <v>25226</v>
       </c>
       <c r="O23" s="30"/>
     </row>
@@ -11272,13 +11271,13 @@
         <v>294</v>
       </c>
       <c r="D24" s="37">
-        <v>51179</v>
+        <v>51301</v>
       </c>
       <c r="E24" s="37">
-        <v>35294</v>
+        <v>35307</v>
       </c>
       <c r="F24" s="37">
-        <v>15885</v>
+        <v>15994</v>
       </c>
       <c r="O24" s="30"/>
     </row>
@@ -11293,13 +11292,13 @@
         <v>280</v>
       </c>
       <c r="D25" s="37">
-        <v>81967</v>
+        <v>81826</v>
       </c>
       <c r="E25" s="37">
-        <v>60190</v>
+        <v>59626</v>
       </c>
       <c r="F25" s="37">
-        <v>21777</v>
+        <v>22200</v>
       </c>
       <c r="O25" s="30"/>
     </row>
@@ -11356,13 +11355,13 @@
         <v>291</v>
       </c>
       <c r="D28" s="37">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E28" s="37">
         <v>153</v>
       </c>
       <c r="F28" s="37">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O28" s="30"/>
     </row>
@@ -11377,13 +11376,13 @@
         <v>295</v>
       </c>
       <c r="D29" s="37">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="E29" s="37">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F29" s="37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O29" s="30"/>
     </row>
@@ -11398,13 +11397,13 @@
         <v>294</v>
       </c>
       <c r="D30" s="37">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E30" s="37">
         <v>26</v>
       </c>
       <c r="F30" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O30" s="30"/>
     </row>
@@ -11419,13 +11418,13 @@
         <v>280</v>
       </c>
       <c r="D31" s="37">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E31" s="37">
         <v>822</v>
       </c>
       <c r="F31" s="37">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O31" s="30"/>
     </row>
@@ -11440,13 +11439,13 @@
         <v>292</v>
       </c>
       <c r="D32" s="37">
-        <v>40524</v>
+        <v>40785</v>
       </c>
       <c r="E32" s="37">
-        <v>26413</v>
+        <v>26584</v>
       </c>
       <c r="F32" s="37">
-        <v>14111</v>
+        <v>14201</v>
       </c>
       <c r="O32" s="30"/>
     </row>
@@ -11461,13 +11460,13 @@
         <v>293</v>
       </c>
       <c r="D33" s="37">
-        <v>19870</v>
+        <v>20059</v>
       </c>
       <c r="E33" s="37">
-        <v>13416</v>
+        <v>13524</v>
       </c>
       <c r="F33" s="37">
-        <v>6454</v>
+        <v>6535</v>
       </c>
       <c r="O33" s="30"/>
     </row>
@@ -11482,13 +11481,13 @@
         <v>291</v>
       </c>
       <c r="D34" s="37">
-        <v>85756</v>
+        <v>87746</v>
       </c>
       <c r="E34" s="37">
-        <v>61148</v>
+        <v>62338</v>
       </c>
       <c r="F34" s="37">
-        <v>24608</v>
+        <v>25408</v>
       </c>
       <c r="O34" s="30"/>
     </row>
@@ -11503,13 +11502,13 @@
         <v>295</v>
       </c>
       <c r="D35" s="37">
-        <v>132499</v>
+        <v>133924</v>
       </c>
       <c r="E35" s="37">
-        <v>88624</v>
+        <v>89438</v>
       </c>
       <c r="F35" s="37">
-        <v>43875</v>
+        <v>44486</v>
       </c>
       <c r="O35" s="30"/>
     </row>
@@ -11524,13 +11523,13 @@
         <v>294</v>
       </c>
       <c r="D36" s="37">
-        <v>40292</v>
+        <v>40593</v>
       </c>
       <c r="E36" s="37">
-        <v>27533</v>
+        <v>27658</v>
       </c>
       <c r="F36" s="37">
-        <v>12759</v>
+        <v>12935</v>
       </c>
       <c r="O36" s="30"/>
     </row>
@@ -11545,13 +11544,13 @@
         <v>280</v>
       </c>
       <c r="D37" s="37">
-        <v>196854</v>
+        <v>197603</v>
       </c>
       <c r="E37" s="37">
-        <v>130390</v>
+        <v>130561</v>
       </c>
       <c r="F37" s="37">
-        <v>66464</v>
+        <v>67042</v>
       </c>
       <c r="O37" s="30"/>
     </row>
@@ -11566,13 +11565,13 @@
         <v>292</v>
       </c>
       <c r="D38" s="37">
-        <v>22585</v>
+        <v>22721</v>
       </c>
       <c r="E38" s="37">
-        <v>15742</v>
+        <v>15833</v>
       </c>
       <c r="F38" s="37">
-        <v>6843</v>
+        <v>6888</v>
       </c>
       <c r="O38" s="30"/>
     </row>
@@ -11587,13 +11586,13 @@
         <v>293</v>
       </c>
       <c r="D39" s="37">
-        <v>22141</v>
+        <v>22367</v>
       </c>
       <c r="E39" s="37">
-        <v>16029</v>
+        <v>16177</v>
       </c>
       <c r="F39" s="37">
-        <v>6112</v>
+        <v>6190</v>
       </c>
       <c r="O39" s="30"/>
     </row>
@@ -11608,13 +11607,13 @@
         <v>291</v>
       </c>
       <c r="D40" s="37">
-        <v>58945</v>
+        <v>60357</v>
       </c>
       <c r="E40" s="37">
-        <v>44511</v>
+        <v>45429</v>
       </c>
       <c r="F40" s="37">
-        <v>14434</v>
+        <v>14928</v>
       </c>
       <c r="O40" s="30"/>
     </row>
@@ -11629,13 +11628,13 @@
         <v>295</v>
       </c>
       <c r="D41" s="37">
-        <v>122511</v>
+        <v>124004</v>
       </c>
       <c r="E41" s="37">
-        <v>88387</v>
+        <v>89297</v>
       </c>
       <c r="F41" s="37">
-        <v>34124</v>
+        <v>34707</v>
       </c>
       <c r="O41" s="30"/>
     </row>
@@ -11650,13 +11649,13 @@
         <v>294</v>
       </c>
       <c r="D42" s="37">
-        <v>29321</v>
+        <v>29474</v>
       </c>
       <c r="E42" s="37">
-        <v>20859</v>
+        <v>20933</v>
       </c>
       <c r="F42" s="37">
-        <v>8462</v>
+        <v>8541</v>
       </c>
       <c r="O42" s="30"/>
     </row>
@@ -11671,13 +11670,13 @@
         <v>280</v>
       </c>
       <c r="D43" s="37">
-        <v>141253</v>
+        <v>141778</v>
       </c>
       <c r="E43" s="37">
-        <v>98805</v>
+        <v>98773</v>
       </c>
       <c r="F43" s="37">
-        <v>42448</v>
+        <v>43005</v>
       </c>
       <c r="O43" s="30"/>
     </row>
@@ -11692,13 +11691,13 @@
         <v>292</v>
       </c>
       <c r="D44" s="37">
-        <v>30158</v>
+        <v>30275</v>
       </c>
       <c r="E44" s="37">
-        <v>21876</v>
+        <v>21935</v>
       </c>
       <c r="F44" s="37">
-        <v>8282</v>
+        <v>8340</v>
       </c>
       <c r="O44" s="30"/>
     </row>
@@ -11713,13 +11712,13 @@
         <v>293</v>
       </c>
       <c r="D45" s="37">
-        <v>25324</v>
+        <v>25584</v>
       </c>
       <c r="E45" s="37">
-        <v>19605</v>
+        <v>19755</v>
       </c>
       <c r="F45" s="37">
-        <v>5719</v>
+        <v>5829</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11733,13 +11732,13 @@
         <v>291</v>
       </c>
       <c r="D46" s="37">
-        <v>61716</v>
+        <v>63086</v>
       </c>
       <c r="E46" s="37">
-        <v>47551</v>
+        <v>48413</v>
       </c>
       <c r="F46" s="37">
-        <v>14165</v>
+        <v>14673</v>
       </c>
       <c r="O46" s="30"/>
     </row>
@@ -11754,13 +11753,13 @@
         <v>295</v>
       </c>
       <c r="D47" s="37">
-        <v>268755</v>
+        <v>271285</v>
       </c>
       <c r="E47" s="37">
-        <v>200539</v>
+        <v>201901</v>
       </c>
       <c r="F47" s="37">
-        <v>68216</v>
+        <v>69384</v>
       </c>
       <c r="O47" s="30"/>
     </row>
@@ -11775,13 +11774,13 @@
         <v>294</v>
       </c>
       <c r="D48" s="37">
-        <v>44011</v>
+        <v>44221</v>
       </c>
       <c r="E48" s="37">
-        <v>31712</v>
+        <v>31803</v>
       </c>
       <c r="F48" s="37">
-        <v>12299</v>
+        <v>12418</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11795,13 +11794,13 @@
         <v>280</v>
       </c>
       <c r="D49" s="37">
-        <v>189221</v>
+        <v>189439</v>
       </c>
       <c r="E49" s="37">
-        <v>139228</v>
+        <v>138588</v>
       </c>
       <c r="F49" s="37">
-        <v>49993</v>
+        <v>50851</v>
       </c>
       <c r="O49" s="30"/>
     </row>
@@ -11816,13 +11815,13 @@
         <v>292</v>
       </c>
       <c r="D50" s="37">
-        <v>6316</v>
+        <v>6366</v>
       </c>
       <c r="E50" s="37">
-        <v>4414</v>
+        <v>4440</v>
       </c>
       <c r="F50" s="37">
-        <v>1902</v>
+        <v>1926</v>
       </c>
       <c r="O50" s="30"/>
     </row>
@@ -11837,13 +11836,13 @@
         <v>293</v>
       </c>
       <c r="D51" s="37">
-        <v>4253</v>
+        <v>4336</v>
       </c>
       <c r="E51" s="37">
-        <v>3217</v>
+        <v>3262</v>
       </c>
       <c r="F51" s="37">
-        <v>1036</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -11857,13 +11856,13 @@
         <v>291</v>
       </c>
       <c r="D52" s="37">
-        <v>12438</v>
+        <v>12792</v>
       </c>
       <c r="E52" s="37">
-        <v>9702</v>
+        <v>9922</v>
       </c>
       <c r="F52" s="37">
-        <v>2736</v>
+        <v>2870</v>
       </c>
       <c r="O52" s="30"/>
     </row>
@@ -11878,13 +11877,13 @@
         <v>295</v>
       </c>
       <c r="D53" s="37">
-        <v>74021</v>
+        <v>75102</v>
       </c>
       <c r="E53" s="37">
-        <v>53056</v>
+        <v>53626</v>
       </c>
       <c r="F53" s="37">
-        <v>20965</v>
+        <v>21476</v>
       </c>
       <c r="O53" s="30"/>
     </row>
@@ -11899,13 +11898,13 @@
         <v>294</v>
       </c>
       <c r="D54" s="37">
-        <v>22034</v>
+        <v>22099</v>
       </c>
       <c r="E54" s="37">
-        <v>15369</v>
+        <v>15373</v>
       </c>
       <c r="F54" s="37">
-        <v>6665</v>
+        <v>6726</v>
       </c>
       <c r="O54" s="30"/>
     </row>
@@ -11920,13 +11919,13 @@
         <v>280</v>
       </c>
       <c r="D55" s="37">
-        <v>53067</v>
+        <v>52910</v>
       </c>
       <c r="E55" s="37">
-        <v>39122</v>
+        <v>38710</v>
       </c>
       <c r="F55" s="37">
-        <v>13945</v>
+        <v>14200</v>
       </c>
       <c r="O55" s="30"/>
     </row>
@@ -11962,10 +11961,10 @@
         <v>293</v>
       </c>
       <c r="D57" s="37">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E57" s="37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F57" s="37">
         <v>2</v>
@@ -12003,13 +12002,13 @@
         <v>295</v>
       </c>
       <c r="D59" s="37">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E59" s="37">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F59" s="37">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O59" s="30"/>
     </row>
@@ -12045,10 +12044,10 @@
         <v>280</v>
       </c>
       <c r="D61" s="37">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E61" s="37">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F61" s="37">
         <v>52</v>
@@ -12107,13 +12106,13 @@
         <v>291</v>
       </c>
       <c r="D64" s="37">
-        <v>1323</v>
+        <v>1332</v>
       </c>
       <c r="E64" s="37">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="F64" s="37">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="O64" s="30"/>
     </row>
@@ -12128,13 +12127,13 @@
         <v>295</v>
       </c>
       <c r="D65" s="37">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="E65" s="37">
         <v>1812</v>
       </c>
       <c r="F65" s="37">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="O65" s="30"/>
     </row>
@@ -12169,13 +12168,13 @@
         <v>280</v>
       </c>
       <c r="D67" s="37">
-        <v>10281</v>
+        <v>10287</v>
       </c>
       <c r="E67" s="37">
         <v>8395</v>
       </c>
       <c r="F67" s="37">
-        <v>1886</v>
+        <v>1892</v>
       </c>
       <c r="O67" s="30"/>
     </row>
@@ -12190,13 +12189,13 @@
         <v>292</v>
       </c>
       <c r="D68" s="37">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E68" s="37">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F68" s="37">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O68" s="30"/>
     </row>
@@ -12211,13 +12210,13 @@
         <v>293</v>
       </c>
       <c r="D69" s="37">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E69" s="37">
         <v>418</v>
       </c>
       <c r="F69" s="37">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12231,10 +12230,10 @@
         <v>291</v>
       </c>
       <c r="D70" s="37">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="E70" s="37">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F70" s="37">
         <v>160</v>
@@ -12255,10 +12254,10 @@
         <v>2374</v>
       </c>
       <c r="E71" s="37">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="F71" s="37">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="O71" s="30"/>
     </row>
@@ -12356,10 +12355,10 @@
         <v>291</v>
       </c>
       <c r="D76" s="37">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="E76" s="37">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="F76" s="37">
         <v>427</v>
@@ -12377,13 +12376,13 @@
         <v>295</v>
       </c>
       <c r="D77" s="37">
-        <v>11721</v>
+        <v>11715</v>
       </c>
       <c r="E77" s="37">
-        <v>7491</v>
+        <v>7488</v>
       </c>
       <c r="F77" s="37">
-        <v>4230</v>
+        <v>4227</v>
       </c>
       <c r="O77" s="30"/>
     </row>
@@ -12419,13 +12418,13 @@
         <v>280</v>
       </c>
       <c r="D79" s="37">
-        <v>18882</v>
+        <v>18879</v>
       </c>
       <c r="E79" s="37">
-        <v>13080</v>
+        <v>13076</v>
       </c>
       <c r="F79" s="37">
-        <v>5802</v>
+        <v>5803</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12479,10 +12478,10 @@
         <v>291</v>
       </c>
       <c r="D82" s="37">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E82" s="37">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F82" s="37">
         <v>88</v>
@@ -12499,10 +12498,10 @@
         <v>295</v>
       </c>
       <c r="D83" s="37">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="E83" s="37">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F83" s="37">
         <v>755</v>
@@ -12542,10 +12541,10 @@
         <v>3033</v>
       </c>
       <c r="E85" s="37">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F85" s="37">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="23" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
@@ -12679,13 +12678,13 @@
         <v>281</v>
       </c>
       <c r="D92" s="37">
-        <v>4290367</v>
+        <v>4325352</v>
       </c>
       <c r="E92" s="37">
-        <v>3031894</v>
+        <v>3047251</v>
       </c>
       <c r="F92" s="37">
-        <v>1258473</v>
+        <v>1278101</v>
       </c>
     </row>
   </sheetData>
@@ -12696,7 +12695,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C327"/>
+  <dimension ref="A1:C334"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -12704,7 +12703,7 @@
   <cols>
     <col min="1" max="1" width="10.3984375" style="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.796875" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.73046875" style="33" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.59765625" style="23"/>
   </cols>
   <sheetData>
@@ -12749,7 +12748,7 @@
         <v>44181</v>
       </c>
       <c r="C4" s="32">
-        <v>12805</v>
+        <v>12806</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12782,7 +12781,7 @@
         <v>44184</v>
       </c>
       <c r="C7" s="32">
-        <v>12383</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12804,7 +12803,7 @@
         <v>44186</v>
       </c>
       <c r="C9" s="32">
-        <v>18473</v>
+        <v>18474</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12815,7 +12814,7 @@
         <v>44187</v>
       </c>
       <c r="C10" s="32">
-        <v>17239</v>
+        <v>17244</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12826,7 +12825,7 @@
         <v>44188</v>
       </c>
       <c r="C11" s="32">
-        <v>24681</v>
+        <v>24680</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12870,7 +12869,7 @@
         <v>44192</v>
       </c>
       <c r="C15" s="32">
-        <v>5315</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12881,7 +12880,7 @@
         <v>44193</v>
       </c>
       <c r="C16" s="32">
-        <v>25509</v>
+        <v>25517</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12892,7 +12891,7 @@
         <v>44194</v>
       </c>
       <c r="C17" s="32">
-        <v>32131</v>
+        <v>32142</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12903,7 +12902,7 @@
         <v>44195</v>
       </c>
       <c r="C18" s="32">
-        <v>38001</v>
+        <v>38005</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12925,7 +12924,7 @@
         <v>44197</v>
       </c>
       <c r="C20" s="32">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12936,7 +12935,7 @@
         <v>44198</v>
       </c>
       <c r="C21" s="32">
-        <v>10081</v>
+        <v>10099</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12947,7 +12946,7 @@
         <v>44199</v>
       </c>
       <c r="C22" s="32">
-        <v>6266</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12958,7 +12957,7 @@
         <v>44200</v>
       </c>
       <c r="C23" s="32">
-        <v>24125</v>
+        <v>24159</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12969,7 +12968,7 @@
         <v>44201</v>
       </c>
       <c r="C24" s="32">
-        <v>28107</v>
+        <v>28111</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12980,7 +12979,7 @@
         <v>44202</v>
       </c>
       <c r="C25" s="32">
-        <v>36175</v>
+        <v>36181</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12991,7 +12990,7 @@
         <v>44203</v>
       </c>
       <c r="C26" s="32">
-        <v>40956</v>
+        <v>40962</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13002,7 +13001,7 @@
         <v>44204</v>
       </c>
       <c r="C27" s="32">
-        <v>44067</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13013,7 +13012,7 @@
         <v>44205</v>
       </c>
       <c r="C28" s="32">
-        <v>18635</v>
+        <v>18636</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13035,7 +13034,7 @@
         <v>44207</v>
       </c>
       <c r="C30" s="32">
-        <v>28610</v>
+        <v>28627</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13046,7 +13045,7 @@
         <v>44208</v>
       </c>
       <c r="C31" s="32">
-        <v>29626</v>
+        <v>30250</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13057,7 +13056,7 @@
         <v>44209</v>
       </c>
       <c r="C32" s="32">
-        <v>28111</v>
+        <v>28234</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13068,7 +13067,7 @@
         <v>44210</v>
       </c>
       <c r="C33" s="32">
-        <v>21816</v>
+        <v>21817</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13079,7 +13078,7 @@
         <v>44211</v>
       </c>
       <c r="C34" s="32">
-        <v>23867</v>
+        <v>23879</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13090,7 +13089,7 @@
         <v>44212</v>
       </c>
       <c r="C35" s="32">
-        <v>13068</v>
+        <v>13070</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13112,7 +13111,7 @@
         <v>44214</v>
       </c>
       <c r="C37" s="32">
-        <v>12208</v>
+        <v>12217</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13123,7 +13122,7 @@
         <v>44215</v>
       </c>
       <c r="C38" s="32">
-        <v>22471</v>
+        <v>22540</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13134,7 +13133,7 @@
         <v>44216</v>
       </c>
       <c r="C39" s="32">
-        <v>30260</v>
+        <v>30267</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13145,7 +13144,7 @@
         <v>44217</v>
       </c>
       <c r="C40" s="32">
-        <v>27708</v>
+        <v>27721</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13156,7 +13155,7 @@
         <v>44218</v>
       </c>
       <c r="C41" s="32">
-        <v>33462</v>
+        <v>33465</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13167,7 +13166,7 @@
         <v>44219</v>
       </c>
       <c r="C42" s="32">
-        <v>18603</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13189,7 +13188,7 @@
         <v>44221</v>
       </c>
       <c r="C44" s="32">
-        <v>34441</v>
+        <v>34444</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13200,7 +13199,7 @@
         <v>44222</v>
       </c>
       <c r="C45" s="32">
-        <v>41517</v>
+        <v>41527</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13211,7 +13210,7 @@
         <v>44223</v>
       </c>
       <c r="C46" s="32">
-        <v>42511</v>
+        <v>42534</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13222,7 +13221,7 @@
         <v>44224</v>
       </c>
       <c r="C47" s="32">
-        <v>38829</v>
+        <v>39016</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13233,7 +13232,7 @@
         <v>44225</v>
       </c>
       <c r="C48" s="32">
-        <v>36733</v>
+        <v>36763</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13244,7 +13243,7 @@
         <v>44226</v>
       </c>
       <c r="C49" s="32">
-        <v>18109</v>
+        <v>18136</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13255,7 +13254,7 @@
         <v>44227</v>
       </c>
       <c r="C50" s="32">
-        <v>7620</v>
+        <v>7619</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13266,7 +13265,7 @@
         <v>44228</v>
       </c>
       <c r="C51" s="32">
-        <v>31456</v>
+        <v>31460</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13277,7 +13276,7 @@
         <v>44229</v>
       </c>
       <c r="C52" s="32">
-        <v>31127</v>
+        <v>31152</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13288,7 +13287,7 @@
         <v>44230</v>
       </c>
       <c r="C53" s="32">
-        <v>43333</v>
+        <v>43370</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13299,7 +13298,7 @@
         <v>44231</v>
       </c>
       <c r="C54" s="32">
-        <v>42201</v>
+        <v>42232</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13310,7 +13309,7 @@
         <v>44232</v>
       </c>
       <c r="C55" s="32">
-        <v>47150</v>
+        <v>47247</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13321,7 +13320,7 @@
         <v>44233</v>
       </c>
       <c r="C56" s="32">
-        <v>26260</v>
+        <v>26593</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13343,7 +13342,7 @@
         <v>44235</v>
       </c>
       <c r="C58" s="32">
-        <v>23210</v>
+        <v>23226</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13354,7 +13353,7 @@
         <v>44236</v>
       </c>
       <c r="C59" s="32">
-        <v>32835</v>
+        <v>32922</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13365,7 +13364,7 @@
         <v>44237</v>
       </c>
       <c r="C60" s="32">
-        <v>31777</v>
+        <v>33654</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13376,7 +13375,7 @@
         <v>44238</v>
       </c>
       <c r="C61" s="32">
-        <v>29482</v>
+        <v>29844</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13387,7 +13386,7 @@
         <v>44239</v>
       </c>
       <c r="C62" s="32">
-        <v>36333</v>
+        <v>36987</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13398,7 +13397,7 @@
         <v>44240</v>
       </c>
       <c r="C63" s="32">
-        <v>19823</v>
+        <v>20285</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13409,7 +13408,7 @@
         <v>44241</v>
       </c>
       <c r="C64" s="32">
-        <v>4604</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13420,7 +13419,7 @@
         <v>44242</v>
       </c>
       <c r="C65" s="32">
-        <v>3040</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13431,7 +13430,7 @@
         <v>44243</v>
       </c>
       <c r="C66" s="32">
-        <v>1266</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13442,18 +13441,18 @@
         <v>44244</v>
       </c>
       <c r="C67" s="32">
-        <v>666</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B68" s="35">
-        <v>44179</v>
+        <v>44245</v>
       </c>
       <c r="C68" s="32">
-        <v>139</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13461,10 +13460,10 @@
         <v>277</v>
       </c>
       <c r="B69" s="35">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="C69" s="32">
-        <v>1491</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13472,10 +13471,10 @@
         <v>277</v>
       </c>
       <c r="B70" s="35">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="C70" s="32">
-        <v>4970</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13483,10 +13482,10 @@
         <v>277</v>
       </c>
       <c r="B71" s="35">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="C71" s="32">
-        <v>6644</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13494,10 +13493,10 @@
         <v>277</v>
       </c>
       <c r="B72" s="35">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="C72" s="32">
-        <v>10832</v>
+        <v>6644</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13505,10 +13504,10 @@
         <v>277</v>
       </c>
       <c r="B73" s="35">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="C73" s="32">
-        <v>4709</v>
+        <v>10833</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13516,10 +13515,10 @@
         <v>277</v>
       </c>
       <c r="B74" s="35">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="C74" s="32">
-        <v>2533</v>
+        <v>4709</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13527,10 +13526,10 @@
         <v>277</v>
       </c>
       <c r="B75" s="35">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="C75" s="32">
-        <v>7904</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13538,10 +13537,10 @@
         <v>277</v>
       </c>
       <c r="B76" s="35">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="C76" s="32">
-        <v>7406</v>
+        <v>7904</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13549,10 +13548,10 @@
         <v>277</v>
       </c>
       <c r="B77" s="35">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="C77" s="32">
-        <v>10801</v>
+        <v>7405</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13560,10 +13559,10 @@
         <v>277</v>
       </c>
       <c r="B78" s="35">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="C78" s="32">
-        <v>4639</v>
+        <v>10803</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13571,10 +13570,10 @@
         <v>277</v>
       </c>
       <c r="B79" s="35">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="C79" s="32">
-        <v>668</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13582,10 +13581,10 @@
         <v>277</v>
       </c>
       <c r="B80" s="35">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="C80" s="32">
-        <v>3186</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13593,10 +13592,10 @@
         <v>277</v>
       </c>
       <c r="B81" s="35">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="C81" s="32">
-        <v>2242</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13604,10 +13603,10 @@
         <v>277</v>
       </c>
       <c r="B82" s="35">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="C82" s="32">
-        <v>12880</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13615,10 +13614,10 @@
         <v>277</v>
       </c>
       <c r="B83" s="35">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="C83" s="32">
-        <v>16964</v>
+        <v>12882</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13626,10 +13625,10 @@
         <v>277</v>
       </c>
       <c r="B84" s="35">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="C84" s="32">
-        <v>20859</v>
+        <v>16966</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13637,10 +13636,10 @@
         <v>277</v>
       </c>
       <c r="B85" s="35">
-        <v>44196</v>
+        <v>44195</v>
       </c>
       <c r="C85" s="32">
-        <v>12631</v>
+        <v>20863</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13648,10 +13647,10 @@
         <v>277</v>
       </c>
       <c r="B86" s="35">
-        <v>44197</v>
+        <v>44196</v>
       </c>
       <c r="C86" s="32">
-        <v>1202</v>
+        <v>12632</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13659,10 +13658,10 @@
         <v>277</v>
       </c>
       <c r="B87" s="35">
-        <v>44198</v>
+        <v>44197</v>
       </c>
       <c r="C87" s="32">
-        <v>5792</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13670,10 +13669,10 @@
         <v>277</v>
       </c>
       <c r="B88" s="35">
-        <v>44199</v>
+        <v>44198</v>
       </c>
       <c r="C88" s="32">
-        <v>3361</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13681,10 +13680,10 @@
         <v>277</v>
       </c>
       <c r="B89" s="35">
-        <v>44200</v>
+        <v>44199</v>
       </c>
       <c r="C89" s="32">
-        <v>14944</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13692,10 +13691,10 @@
         <v>277</v>
       </c>
       <c r="B90" s="35">
-        <v>44201</v>
+        <v>44200</v>
       </c>
       <c r="C90" s="32">
-        <v>16695</v>
+        <v>14983</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13703,10 +13702,10 @@
         <v>277</v>
       </c>
       <c r="B91" s="35">
-        <v>44202</v>
+        <v>44201</v>
       </c>
       <c r="C91" s="32">
-        <v>20138</v>
+        <v>16700</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13714,10 +13713,10 @@
         <v>277</v>
       </c>
       <c r="B92" s="35">
-        <v>44203</v>
+        <v>44202</v>
       </c>
       <c r="C92" s="32">
-        <v>22950</v>
+        <v>20147</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13725,10 +13724,10 @@
         <v>277</v>
       </c>
       <c r="B93" s="35">
-        <v>44204</v>
+        <v>44203</v>
       </c>
       <c r="C93" s="32">
-        <v>24636</v>
+        <v>22953</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13736,10 +13735,10 @@
         <v>277</v>
       </c>
       <c r="B94" s="35">
-        <v>44205</v>
+        <v>44204</v>
       </c>
       <c r="C94" s="32">
-        <v>10692</v>
+        <v>24659</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13747,10 +13746,10 @@
         <v>277</v>
       </c>
       <c r="B95" s="35">
-        <v>44206</v>
+        <v>44205</v>
       </c>
       <c r="C95" s="32">
-        <v>4453</v>
+        <v>10692</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13758,10 +13757,10 @@
         <v>277</v>
       </c>
       <c r="B96" s="35">
-        <v>44207</v>
+        <v>44206</v>
       </c>
       <c r="C96" s="32">
-        <v>18193</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13769,10 +13768,10 @@
         <v>277</v>
       </c>
       <c r="B97" s="35">
-        <v>44208</v>
+        <v>44207</v>
       </c>
       <c r="C97" s="32">
-        <v>20133</v>
+        <v>18203</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13780,10 +13779,10 @@
         <v>277</v>
       </c>
       <c r="B98" s="35">
-        <v>44209</v>
+        <v>44208</v>
       </c>
       <c r="C98" s="32">
-        <v>20238</v>
+        <v>20473</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13791,10 +13790,10 @@
         <v>277</v>
       </c>
       <c r="B99" s="35">
-        <v>44210</v>
+        <v>44209</v>
       </c>
       <c r="C99" s="32">
-        <v>17383</v>
+        <v>20319</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13802,10 +13801,10 @@
         <v>277</v>
       </c>
       <c r="B100" s="35">
-        <v>44211</v>
+        <v>44210</v>
       </c>
       <c r="C100" s="32">
-        <v>17624</v>
+        <v>17385</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13813,10 +13812,10 @@
         <v>277</v>
       </c>
       <c r="B101" s="35">
-        <v>44212</v>
+        <v>44211</v>
       </c>
       <c r="C101" s="32">
-        <v>11200</v>
+        <v>17629</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13824,10 +13823,10 @@
         <v>277</v>
       </c>
       <c r="B102" s="35">
-        <v>44213</v>
+        <v>44212</v>
       </c>
       <c r="C102" s="32">
-        <v>1740</v>
+        <v>11200</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13835,10 +13834,10 @@
         <v>277</v>
       </c>
       <c r="B103" s="35">
-        <v>44214</v>
+        <v>44213</v>
       </c>
       <c r="C103" s="32">
-        <v>8682</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13846,10 +13845,10 @@
         <v>277</v>
       </c>
       <c r="B104" s="35">
-        <v>44215</v>
+        <v>44214</v>
       </c>
       <c r="C104" s="32">
-        <v>17336</v>
+        <v>8687</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13857,10 +13856,10 @@
         <v>277</v>
       </c>
       <c r="B105" s="35">
-        <v>44216</v>
+        <v>44215</v>
       </c>
       <c r="C105" s="32">
-        <v>22903</v>
+        <v>17371</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13868,10 +13867,10 @@
         <v>277</v>
       </c>
       <c r="B106" s="35">
-        <v>44217</v>
+        <v>44216</v>
       </c>
       <c r="C106" s="32">
-        <v>22059</v>
+        <v>22909</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13879,10 +13878,10 @@
         <v>277</v>
       </c>
       <c r="B107" s="35">
-        <v>44218</v>
+        <v>44217</v>
       </c>
       <c r="C107" s="32">
-        <v>23589</v>
+        <v>22063</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13890,10 +13889,10 @@
         <v>277</v>
       </c>
       <c r="B108" s="35">
-        <v>44219</v>
+        <v>44218</v>
       </c>
       <c r="C108" s="32">
-        <v>13155</v>
+        <v>23593</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13901,10 +13900,10 @@
         <v>277</v>
       </c>
       <c r="B109" s="35">
-        <v>44220</v>
+        <v>44219</v>
       </c>
       <c r="C109" s="32">
-        <v>5246</v>
+        <v>13160</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13912,10 +13911,10 @@
         <v>277</v>
       </c>
       <c r="B110" s="35">
-        <v>44221</v>
+        <v>44220</v>
       </c>
       <c r="C110" s="32">
-        <v>23180</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13923,10 +13922,10 @@
         <v>277</v>
       </c>
       <c r="B111" s="35">
-        <v>44222</v>
+        <v>44221</v>
       </c>
       <c r="C111" s="32">
-        <v>30318</v>
+        <v>23184</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13934,10 +13933,10 @@
         <v>277</v>
       </c>
       <c r="B112" s="35">
-        <v>44223</v>
+        <v>44222</v>
       </c>
       <c r="C112" s="32">
-        <v>32264</v>
+        <v>30337</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13945,10 +13944,10 @@
         <v>277</v>
       </c>
       <c r="B113" s="35">
-        <v>44224</v>
+        <v>44223</v>
       </c>
       <c r="C113" s="32">
-        <v>31359</v>
+        <v>32296</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13956,10 +13955,10 @@
         <v>277</v>
       </c>
       <c r="B114" s="35">
-        <v>44225</v>
+        <v>44224</v>
       </c>
       <c r="C114" s="32">
-        <v>29108</v>
+        <v>31562</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13967,10 +13966,10 @@
         <v>277</v>
       </c>
       <c r="B115" s="35">
-        <v>44226</v>
+        <v>44225</v>
       </c>
       <c r="C115" s="32">
-        <v>14478</v>
+        <v>29131</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,10 +13977,10 @@
         <v>277</v>
       </c>
       <c r="B116" s="35">
-        <v>44227</v>
+        <v>44226</v>
       </c>
       <c r="C116" s="32">
-        <v>5932</v>
+        <v>14507</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13989,10 +13988,10 @@
         <v>277</v>
       </c>
       <c r="B117" s="35">
-        <v>44228</v>
+        <v>44227</v>
       </c>
       <c r="C117" s="32">
-        <v>23838</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14000,10 +13999,10 @@
         <v>277</v>
       </c>
       <c r="B118" s="35">
-        <v>44229</v>
+        <v>44228</v>
       </c>
       <c r="C118" s="32">
-        <v>27807</v>
+        <v>23845</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14011,10 +14010,10 @@
         <v>277</v>
       </c>
       <c r="B119" s="35">
-        <v>44230</v>
+        <v>44229</v>
       </c>
       <c r="C119" s="32">
-        <v>35540</v>
+        <v>27840</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14022,10 +14021,10 @@
         <v>277</v>
       </c>
       <c r="B120" s="35">
-        <v>44231</v>
+        <v>44230</v>
       </c>
       <c r="C120" s="32">
-        <v>36666</v>
+        <v>35590</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,10 +14032,10 @@
         <v>277</v>
       </c>
       <c r="B121" s="35">
-        <v>44232</v>
+        <v>44231</v>
       </c>
       <c r="C121" s="32">
-        <v>40548</v>
+        <v>36703</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14044,10 +14043,10 @@
         <v>277</v>
       </c>
       <c r="B122" s="35">
-        <v>44233</v>
+        <v>44232</v>
       </c>
       <c r="C122" s="32">
-        <v>23913</v>
+        <v>40650</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14055,10 +14054,10 @@
         <v>277</v>
       </c>
       <c r="B123" s="35">
-        <v>44234</v>
+        <v>44233</v>
       </c>
       <c r="C123" s="32">
-        <v>5769</v>
+        <v>23995</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14066,10 +14065,10 @@
         <v>277</v>
       </c>
       <c r="B124" s="35">
-        <v>44235</v>
+        <v>44234</v>
       </c>
       <c r="C124" s="32">
-        <v>21278</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14077,10 +14076,10 @@
         <v>277</v>
       </c>
       <c r="B125" s="35">
-        <v>44236</v>
+        <v>44235</v>
       </c>
       <c r="C125" s="32">
-        <v>30102</v>
+        <v>21298</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14088,10 +14087,10 @@
         <v>277</v>
       </c>
       <c r="B126" s="35">
-        <v>44237</v>
+        <v>44236</v>
       </c>
       <c r="C126" s="32">
-        <v>30604</v>
+        <v>30186</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14099,10 +14098,10 @@
         <v>277</v>
       </c>
       <c r="B127" s="35">
-        <v>44238</v>
+        <v>44237</v>
       </c>
       <c r="C127" s="32">
-        <v>27965</v>
+        <v>31826</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14110,10 +14109,10 @@
         <v>277</v>
       </c>
       <c r="B128" s="35">
-        <v>44239</v>
+        <v>44238</v>
       </c>
       <c r="C128" s="32">
-        <v>32717</v>
+        <v>28265</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14121,10 +14120,10 @@
         <v>277</v>
       </c>
       <c r="B129" s="35">
-        <v>44240</v>
+        <v>44239</v>
       </c>
       <c r="C129" s="32">
-        <v>17094</v>
+        <v>33103</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14132,10 +14131,10 @@
         <v>277</v>
       </c>
       <c r="B130" s="35">
-        <v>44241</v>
+        <v>44240</v>
       </c>
       <c r="C130" s="32">
-        <v>4400</v>
+        <v>17415</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14143,10 +14142,10 @@
         <v>277</v>
       </c>
       <c r="B131" s="35">
-        <v>44242</v>
+        <v>44241</v>
       </c>
       <c r="C131" s="32">
-        <v>2512</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14154,10 +14153,10 @@
         <v>277</v>
       </c>
       <c r="B132" s="35">
-        <v>44243</v>
+        <v>44242</v>
       </c>
       <c r="C132" s="32">
-        <v>1163</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14165,32 +14164,32 @@
         <v>277</v>
       </c>
       <c r="B133" s="35">
-        <v>44244</v>
+        <v>44243</v>
       </c>
       <c r="C133" s="32">
-        <v>760</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B134" s="35">
-        <v>44179</v>
+        <v>44244</v>
       </c>
       <c r="C134" s="32">
-        <v>24</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B135" s="35">
-        <v>44180</v>
+        <v>44245</v>
       </c>
       <c r="C135" s="32">
-        <v>305</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14198,10 +14197,10 @@
         <v>278</v>
       </c>
       <c r="B136" s="35">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="C136" s="32">
-        <v>955</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14209,10 +14208,10 @@
         <v>278</v>
       </c>
       <c r="B137" s="35">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="C137" s="32">
-        <v>1431</v>
+        <v>305</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14220,10 +14219,10 @@
         <v>278</v>
       </c>
       <c r="B138" s="35">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="C138" s="32">
-        <v>2029</v>
+        <v>955</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14231,10 +14230,10 @@
         <v>278</v>
       </c>
       <c r="B139" s="35">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="C139" s="32">
-        <v>1009</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14242,10 +14241,10 @@
         <v>278</v>
       </c>
       <c r="B140" s="35">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="C140" s="32">
-        <v>499</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14253,10 +14252,10 @@
         <v>278</v>
       </c>
       <c r="B141" s="35">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="C141" s="32">
-        <v>1511</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14264,10 +14263,10 @@
         <v>278</v>
       </c>
       <c r="B142" s="35">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="C142" s="32">
-        <v>2111</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14275,10 +14274,10 @@
         <v>278</v>
       </c>
       <c r="B143" s="35">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="C143" s="32">
-        <v>2926</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14286,10 +14285,10 @@
         <v>278</v>
       </c>
       <c r="B144" s="35">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="C144" s="32">
-        <v>1886</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14297,10 +14296,10 @@
         <v>278</v>
       </c>
       <c r="B145" s="35">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="C145" s="32">
-        <v>325</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14308,10 +14307,10 @@
         <v>278</v>
       </c>
       <c r="B146" s="35">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="C146" s="32">
-        <v>1725</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14319,10 +14318,10 @@
         <v>278</v>
       </c>
       <c r="B147" s="35">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="C147" s="32">
-        <v>1120</v>
+        <v>325</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14330,10 +14329,10 @@
         <v>278</v>
       </c>
       <c r="B148" s="35">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="C148" s="32">
-        <v>6666</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14341,10 +14340,10 @@
         <v>278</v>
       </c>
       <c r="B149" s="35">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="C149" s="32">
-        <v>10748</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14352,10 +14351,10 @@
         <v>278</v>
       </c>
       <c r="B150" s="35">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="C150" s="32">
-        <v>17525</v>
+        <v>6669</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14363,10 +14362,10 @@
         <v>278</v>
       </c>
       <c r="B151" s="35">
-        <v>44196</v>
+        <v>44194</v>
       </c>
       <c r="C151" s="32">
-        <v>10885</v>
+        <v>10750</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14374,10 +14373,10 @@
         <v>278</v>
       </c>
       <c r="B152" s="35">
-        <v>44197</v>
+        <v>44195</v>
       </c>
       <c r="C152" s="32">
-        <v>1336</v>
+        <v>17526</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14385,10 +14384,10 @@
         <v>278</v>
       </c>
       <c r="B153" s="35">
-        <v>44198</v>
+        <v>44196</v>
       </c>
       <c r="C153" s="32">
-        <v>6346</v>
+        <v>10885</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14396,10 +14395,10 @@
         <v>278</v>
       </c>
       <c r="B154" s="35">
-        <v>44199</v>
+        <v>44197</v>
       </c>
       <c r="C154" s="32">
-        <v>3570</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14407,10 +14406,10 @@
         <v>278</v>
       </c>
       <c r="B155" s="35">
-        <v>44200</v>
+        <v>44198</v>
       </c>
       <c r="C155" s="32">
-        <v>16383</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14418,10 +14417,10 @@
         <v>278</v>
       </c>
       <c r="B156" s="35">
-        <v>44201</v>
+        <v>44199</v>
       </c>
       <c r="C156" s="32">
-        <v>18464</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14429,10 +14428,10 @@
         <v>278</v>
       </c>
       <c r="B157" s="35">
-        <v>44202</v>
+        <v>44200</v>
       </c>
       <c r="C157" s="32">
-        <v>20460</v>
+        <v>16441</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14440,10 +14439,10 @@
         <v>278</v>
       </c>
       <c r="B158" s="35">
-        <v>44203</v>
+        <v>44201</v>
       </c>
       <c r="C158" s="32">
-        <v>24531</v>
+        <v>18468</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14451,10 +14450,10 @@
         <v>278</v>
       </c>
       <c r="B159" s="35">
-        <v>44204</v>
+        <v>44202</v>
       </c>
       <c r="C159" s="32">
-        <v>24805</v>
+        <v>20483</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14462,10 +14461,10 @@
         <v>278</v>
       </c>
       <c r="B160" s="35">
-        <v>44205</v>
+        <v>44203</v>
       </c>
       <c r="C160" s="32">
-        <v>14056</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14473,10 +14472,10 @@
         <v>278</v>
       </c>
       <c r="B161" s="35">
-        <v>44206</v>
+        <v>44204</v>
       </c>
       <c r="C161" s="32">
-        <v>4423</v>
+        <v>24826</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14484,10 +14483,10 @@
         <v>278</v>
       </c>
       <c r="B162" s="35">
-        <v>44207</v>
+        <v>44205</v>
       </c>
       <c r="C162" s="32">
-        <v>23816</v>
+        <v>14057</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14495,10 +14494,10 @@
         <v>278</v>
       </c>
       <c r="B163" s="35">
-        <v>44208</v>
+        <v>44206</v>
       </c>
       <c r="C163" s="32">
-        <v>29118</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14506,10 +14505,10 @@
         <v>278</v>
       </c>
       <c r="B164" s="35">
-        <v>44209</v>
+        <v>44207</v>
       </c>
       <c r="C164" s="32">
-        <v>30207</v>
+        <v>23823</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14517,10 +14516,10 @@
         <v>278</v>
       </c>
       <c r="B165" s="35">
-        <v>44210</v>
+        <v>44208</v>
       </c>
       <c r="C165" s="32">
-        <v>34482</v>
+        <v>29224</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14528,10 +14527,10 @@
         <v>278</v>
       </c>
       <c r="B166" s="35">
-        <v>44211</v>
+        <v>44209</v>
       </c>
       <c r="C166" s="32">
-        <v>30664</v>
+        <v>30236</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14539,10 +14538,10 @@
         <v>278</v>
       </c>
       <c r="B167" s="35">
-        <v>44212</v>
+        <v>44210</v>
       </c>
       <c r="C167" s="32">
-        <v>25595</v>
+        <v>34488</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14550,10 +14549,10 @@
         <v>278</v>
       </c>
       <c r="B168" s="35">
-        <v>44213</v>
+        <v>44211</v>
       </c>
       <c r="C168" s="32">
-        <v>6737</v>
+        <v>30668</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14561,10 +14560,10 @@
         <v>278</v>
       </c>
       <c r="B169" s="35">
-        <v>44214</v>
+        <v>44212</v>
       </c>
       <c r="C169" s="32">
-        <v>12176</v>
+        <v>25596</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14572,10 +14571,10 @@
         <v>278</v>
       </c>
       <c r="B170" s="35">
-        <v>44215</v>
+        <v>44213</v>
       </c>
       <c r="C170" s="32">
-        <v>22969</v>
+        <v>6738</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14583,10 +14582,10 @@
         <v>278</v>
       </c>
       <c r="B171" s="35">
-        <v>44216</v>
+        <v>44214</v>
       </c>
       <c r="C171" s="32">
-        <v>32156</v>
+        <v>12185</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14594,10 +14593,10 @@
         <v>278</v>
       </c>
       <c r="B172" s="35">
-        <v>44217</v>
+        <v>44215</v>
       </c>
       <c r="C172" s="32">
-        <v>34036</v>
+        <v>22995</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14605,10 +14604,10 @@
         <v>278</v>
       </c>
       <c r="B173" s="35">
-        <v>44218</v>
+        <v>44216</v>
       </c>
       <c r="C173" s="32">
-        <v>30625</v>
+        <v>32169</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14616,10 +14615,10 @@
         <v>278</v>
       </c>
       <c r="B174" s="35">
-        <v>44219</v>
+        <v>44217</v>
       </c>
       <c r="C174" s="32">
-        <v>21872</v>
+        <v>34055</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14627,10 +14626,10 @@
         <v>278</v>
       </c>
       <c r="B175" s="35">
-        <v>44220</v>
+        <v>44218</v>
       </c>
       <c r="C175" s="32">
-        <v>9017</v>
+        <v>30638</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14638,10 +14637,10 @@
         <v>278</v>
       </c>
       <c r="B176" s="35">
-        <v>44221</v>
+        <v>44219</v>
       </c>
       <c r="C176" s="32">
-        <v>26905</v>
+        <v>21883</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14649,10 +14648,10 @@
         <v>278</v>
       </c>
       <c r="B177" s="35">
-        <v>44222</v>
+        <v>44220</v>
       </c>
       <c r="C177" s="32">
-        <v>38124</v>
+        <v>9017</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14660,10 +14659,10 @@
         <v>278</v>
       </c>
       <c r="B178" s="35">
-        <v>44223</v>
+        <v>44221</v>
       </c>
       <c r="C178" s="32">
-        <v>44857</v>
+        <v>26917</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14671,10 +14670,10 @@
         <v>278</v>
       </c>
       <c r="B179" s="35">
-        <v>44224</v>
+        <v>44222</v>
       </c>
       <c r="C179" s="32">
-        <v>49291</v>
+        <v>38135</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14682,10 +14681,10 @@
         <v>278</v>
       </c>
       <c r="B180" s="35">
-        <v>44225</v>
+        <v>44223</v>
       </c>
       <c r="C180" s="32">
-        <v>44946</v>
+        <v>44911</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14693,10 +14692,10 @@
         <v>278</v>
       </c>
       <c r="B181" s="35">
-        <v>44226</v>
+        <v>44224</v>
       </c>
       <c r="C181" s="32">
-        <v>23031</v>
+        <v>49469</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14704,10 +14703,10 @@
         <v>278</v>
       </c>
       <c r="B182" s="35">
-        <v>44227</v>
+        <v>44225</v>
       </c>
       <c r="C182" s="32">
-        <v>7209</v>
+        <v>45016</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14715,10 +14714,10 @@
         <v>278</v>
       </c>
       <c r="B183" s="35">
-        <v>44228</v>
+        <v>44226</v>
       </c>
       <c r="C183" s="32">
-        <v>35230</v>
+        <v>23056</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14726,10 +14725,10 @@
         <v>278</v>
       </c>
       <c r="B184" s="35">
-        <v>44229</v>
+        <v>44227</v>
       </c>
       <c r="C184" s="32">
-        <v>45225</v>
+        <v>7211</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14737,10 +14736,10 @@
         <v>278</v>
       </c>
       <c r="B185" s="35">
-        <v>44230</v>
+        <v>44228</v>
       </c>
       <c r="C185" s="32">
-        <v>58673</v>
+        <v>35244</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14748,10 +14747,10 @@
         <v>278</v>
       </c>
       <c r="B186" s="35">
-        <v>44231</v>
+        <v>44229</v>
       </c>
       <c r="C186" s="32">
-        <v>69662</v>
+        <v>45290</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14759,10 +14758,10 @@
         <v>278</v>
       </c>
       <c r="B187" s="35">
-        <v>44232</v>
+        <v>44230</v>
       </c>
       <c r="C187" s="32">
-        <v>71437</v>
+        <v>58728</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14770,10 +14769,10 @@
         <v>278</v>
       </c>
       <c r="B188" s="35">
-        <v>44233</v>
+        <v>44231</v>
       </c>
       <c r="C188" s="32">
-        <v>48134</v>
+        <v>69750</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14781,10 +14780,10 @@
         <v>278</v>
       </c>
       <c r="B189" s="35">
-        <v>44234</v>
+        <v>44232</v>
       </c>
       <c r="C189" s="32">
-        <v>15257</v>
+        <v>71487</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14792,10 +14791,10 @@
         <v>278</v>
       </c>
       <c r="B190" s="35">
-        <v>44235</v>
+        <v>44233</v>
       </c>
       <c r="C190" s="32">
-        <v>37340</v>
+        <v>48238</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14803,10 +14802,10 @@
         <v>278</v>
       </c>
       <c r="B191" s="35">
-        <v>44236</v>
+        <v>44234</v>
       </c>
       <c r="C191" s="32">
-        <v>49851</v>
+        <v>15257</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14814,10 +14813,10 @@
         <v>278</v>
       </c>
       <c r="B192" s="35">
-        <v>44237</v>
+        <v>44235</v>
       </c>
       <c r="C192" s="32">
-        <v>52124</v>
+        <v>37356</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14825,10 +14824,10 @@
         <v>278</v>
       </c>
       <c r="B193" s="35">
-        <v>44238</v>
+        <v>44236</v>
       </c>
       <c r="C193" s="32">
-        <v>50086</v>
+        <v>49965</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14836,10 +14835,10 @@
         <v>278</v>
       </c>
       <c r="B194" s="35">
-        <v>44239</v>
+        <v>44237</v>
       </c>
       <c r="C194" s="32">
-        <v>60647</v>
+        <v>54503</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14847,10 +14846,10 @@
         <v>278</v>
       </c>
       <c r="B195" s="35">
-        <v>44240</v>
+        <v>44238</v>
       </c>
       <c r="C195" s="32">
-        <v>30126</v>
+        <v>50413</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14858,10 +14857,10 @@
         <v>278</v>
       </c>
       <c r="B196" s="35">
-        <v>44241</v>
+        <v>44239</v>
       </c>
       <c r="C196" s="32">
-        <v>10306</v>
+        <v>61310</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14869,10 +14868,10 @@
         <v>278</v>
       </c>
       <c r="B197" s="35">
-        <v>44242</v>
+        <v>44240</v>
       </c>
       <c r="C197" s="32">
-        <v>1900</v>
+        <v>30382</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14880,10 +14879,10 @@
         <v>278</v>
       </c>
       <c r="B198" s="35">
-        <v>44243</v>
+        <v>44241</v>
       </c>
       <c r="C198" s="32">
-        <v>1264</v>
+        <v>10327</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14891,43 +14890,43 @@
         <v>278</v>
       </c>
       <c r="B199" s="35">
-        <v>44244</v>
+        <v>44242</v>
       </c>
       <c r="C199" s="32">
-        <v>1028</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B200" s="35">
-        <v>44179</v>
+        <v>44243</v>
       </c>
       <c r="C200" s="32">
-        <v>2</v>
+        <v>3971</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B201" s="35">
-        <v>44180</v>
+        <v>44244</v>
       </c>
       <c r="C201" s="32">
-        <v>7</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B202" s="35">
-        <v>44181</v>
+        <v>44245</v>
       </c>
       <c r="C202" s="32">
-        <v>34</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14935,10 +14934,10 @@
         <v>279</v>
       </c>
       <c r="B203" s="35">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="C203" s="32">
-        <v>69</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14946,10 +14945,10 @@
         <v>279</v>
       </c>
       <c r="B204" s="35">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="C204" s="32">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14957,10 +14956,10 @@
         <v>279</v>
       </c>
       <c r="B205" s="35">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="C205" s="32">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14968,10 +14967,10 @@
         <v>279</v>
       </c>
       <c r="B206" s="35">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="C206" s="32">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14979,10 +14978,10 @@
         <v>279</v>
       </c>
       <c r="B207" s="35">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="C207" s="32">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -14990,10 +14989,10 @@
         <v>279</v>
       </c>
       <c r="B208" s="35">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="C208" s="32">
-        <v>164</v>
+        <v>47</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15001,10 +15000,10 @@
         <v>279</v>
       </c>
       <c r="B209" s="35">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="C209" s="32">
-        <v>585</v>
+        <v>89</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15012,10 +15011,10 @@
         <v>279</v>
       </c>
       <c r="B210" s="35">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="C210" s="32">
-        <v>409</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15023,10 +15022,10 @@
         <v>279</v>
       </c>
       <c r="B211" s="35">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="C211" s="32">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15034,10 +15033,10 @@
         <v>279</v>
       </c>
       <c r="B212" s="35">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="C212" s="32">
-        <v>509</v>
+        <v>585</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15045,10 +15044,10 @@
         <v>279</v>
       </c>
       <c r="B213" s="35">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="C213" s="32">
-        <v>367</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15056,10 +15055,10 @@
         <v>279</v>
       </c>
       <c r="B214" s="35">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="C214" s="32">
-        <v>2728</v>
+        <v>57</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15067,10 +15066,10 @@
         <v>279</v>
       </c>
       <c r="B215" s="35">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="C215" s="32">
-        <v>5576</v>
+        <v>509</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15078,10 +15077,10 @@
         <v>279</v>
       </c>
       <c r="B216" s="35">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="C216" s="32">
-        <v>7212</v>
+        <v>367</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15089,10 +15088,10 @@
         <v>279</v>
       </c>
       <c r="B217" s="35">
-        <v>44196</v>
+        <v>44193</v>
       </c>
       <c r="C217" s="32">
-        <v>3220</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15100,10 +15099,10 @@
         <v>279</v>
       </c>
       <c r="B218" s="35">
-        <v>44197</v>
+        <v>44194</v>
       </c>
       <c r="C218" s="32">
-        <v>419</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15111,10 +15110,10 @@
         <v>279</v>
       </c>
       <c r="B219" s="35">
-        <v>44198</v>
+        <v>44195</v>
       </c>
       <c r="C219" s="32">
-        <v>2062</v>
+        <v>7213</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15122,10 +15121,10 @@
         <v>279</v>
       </c>
       <c r="B220" s="35">
-        <v>44199</v>
+        <v>44196</v>
       </c>
       <c r="C220" s="32">
-        <v>1251</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15133,10 +15132,10 @@
         <v>279</v>
       </c>
       <c r="B221" s="35">
-        <v>44200</v>
+        <v>44197</v>
       </c>
       <c r="C221" s="32">
-        <v>6680</v>
+        <v>422</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15144,10 +15143,10 @@
         <v>279</v>
       </c>
       <c r="B222" s="35">
-        <v>44201</v>
+        <v>44198</v>
       </c>
       <c r="C222" s="32">
-        <v>5875</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15155,10 +15154,10 @@
         <v>279</v>
       </c>
       <c r="B223" s="35">
-        <v>44202</v>
+        <v>44199</v>
       </c>
       <c r="C223" s="32">
-        <v>7617</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15166,10 +15165,10 @@
         <v>279</v>
       </c>
       <c r="B224" s="35">
-        <v>44203</v>
+        <v>44200</v>
       </c>
       <c r="C224" s="32">
-        <v>9454</v>
+        <v>6691</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15177,10 +15176,10 @@
         <v>279</v>
       </c>
       <c r="B225" s="35">
-        <v>44204</v>
+        <v>44201</v>
       </c>
       <c r="C225" s="32">
-        <v>8675</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15188,10 +15187,10 @@
         <v>279</v>
       </c>
       <c r="B226" s="35">
-        <v>44205</v>
+        <v>44202</v>
       </c>
       <c r="C226" s="32">
-        <v>4762</v>
+        <v>7624</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15199,10 +15198,10 @@
         <v>279</v>
       </c>
       <c r="B227" s="35">
-        <v>44206</v>
+        <v>44203</v>
       </c>
       <c r="C227" s="32">
-        <v>1387</v>
+        <v>9455</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15210,10 +15209,10 @@
         <v>279</v>
       </c>
       <c r="B228" s="35">
-        <v>44207</v>
+        <v>44204</v>
       </c>
       <c r="C228" s="32">
-        <v>8430</v>
+        <v>8680</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15221,10 +15220,10 @@
         <v>279</v>
       </c>
       <c r="B229" s="35">
-        <v>44208</v>
+        <v>44205</v>
       </c>
       <c r="C229" s="32">
-        <v>9314</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15232,10 +15231,10 @@
         <v>279</v>
       </c>
       <c r="B230" s="35">
-        <v>44209</v>
+        <v>44206</v>
       </c>
       <c r="C230" s="32">
-        <v>11627</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15243,10 +15242,10 @@
         <v>279</v>
       </c>
       <c r="B231" s="35">
-        <v>44210</v>
+        <v>44207</v>
       </c>
       <c r="C231" s="32">
-        <v>12146</v>
+        <v>8432</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15254,10 +15253,10 @@
         <v>279</v>
       </c>
       <c r="B232" s="35">
-        <v>44211</v>
+        <v>44208</v>
       </c>
       <c r="C232" s="32">
-        <v>9030</v>
+        <v>9323</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15265,10 +15264,10 @@
         <v>279</v>
       </c>
       <c r="B233" s="35">
-        <v>44212</v>
+        <v>44209</v>
       </c>
       <c r="C233" s="32">
-        <v>5487</v>
+        <v>11627</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15276,10 +15275,10 @@
         <v>279</v>
       </c>
       <c r="B234" s="35">
-        <v>44213</v>
+        <v>44210</v>
       </c>
       <c r="C234" s="32">
-        <v>1725</v>
+        <v>12149</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15287,10 +15286,10 @@
         <v>279</v>
       </c>
       <c r="B235" s="35">
-        <v>44214</v>
+        <v>44211</v>
       </c>
       <c r="C235" s="32">
-        <v>5176</v>
+        <v>9033</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15298,10 +15297,10 @@
         <v>279</v>
       </c>
       <c r="B236" s="35">
-        <v>44215</v>
+        <v>44212</v>
       </c>
       <c r="C236" s="32">
-        <v>8809</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="237" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15309,10 +15308,10 @@
         <v>279</v>
       </c>
       <c r="B237" s="35">
-        <v>44216</v>
+        <v>44213</v>
       </c>
       <c r="C237" s="32">
-        <v>11075</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15320,10 +15319,10 @@
         <v>279</v>
       </c>
       <c r="B238" s="35">
-        <v>44217</v>
+        <v>44214</v>
       </c>
       <c r="C238" s="32">
-        <v>10733</v>
+        <v>5175</v>
       </c>
     </row>
     <row r="239" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15331,10 +15330,10 @@
         <v>279</v>
       </c>
       <c r="B239" s="35">
-        <v>44218</v>
+        <v>44215</v>
       </c>
       <c r="C239" s="32">
-        <v>8631</v>
+        <v>8819</v>
       </c>
     </row>
     <row r="240" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15342,10 +15341,10 @@
         <v>279</v>
       </c>
       <c r="B240" s="35">
-        <v>44219</v>
+        <v>44216</v>
       </c>
       <c r="C240" s="32">
-        <v>6105</v>
+        <v>11081</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15353,10 +15352,10 @@
         <v>279</v>
       </c>
       <c r="B241" s="35">
-        <v>44220</v>
+        <v>44217</v>
       </c>
       <c r="C241" s="32">
-        <v>2038</v>
+        <v>10741</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15364,10 +15363,10 @@
         <v>279</v>
       </c>
       <c r="B242" s="35">
-        <v>44221</v>
+        <v>44218</v>
       </c>
       <c r="C242" s="32">
-        <v>8995</v>
+        <v>8633</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15375,10 +15374,10 @@
         <v>279</v>
       </c>
       <c r="B243" s="35">
-        <v>44222</v>
+        <v>44219</v>
       </c>
       <c r="C243" s="32">
-        <v>13230</v>
+        <v>6110</v>
       </c>
     </row>
     <row r="244" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15386,10 +15385,10 @@
         <v>279</v>
       </c>
       <c r="B244" s="35">
-        <v>44223</v>
+        <v>44220</v>
       </c>
       <c r="C244" s="32">
-        <v>15294</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="245" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15397,10 +15396,10 @@
         <v>279</v>
       </c>
       <c r="B245" s="35">
-        <v>44224</v>
+        <v>44221</v>
       </c>
       <c r="C245" s="32">
-        <v>16016</v>
+        <v>8997</v>
       </c>
     </row>
     <row r="246" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15408,10 +15407,10 @@
         <v>279</v>
       </c>
       <c r="B246" s="35">
-        <v>44225</v>
+        <v>44222</v>
       </c>
       <c r="C246" s="32">
-        <v>13718</v>
+        <v>13234</v>
       </c>
     </row>
     <row r="247" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15419,10 +15418,10 @@
         <v>279</v>
       </c>
       <c r="B247" s="35">
-        <v>44226</v>
+        <v>44223</v>
       </c>
       <c r="C247" s="32">
-        <v>7074</v>
+        <v>15313</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15430,10 +15429,10 @@
         <v>279</v>
       </c>
       <c r="B248" s="35">
-        <v>44227</v>
+        <v>44224</v>
       </c>
       <c r="C248" s="32">
-        <v>3382</v>
+        <v>16068</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15441,10 +15440,10 @@
         <v>279</v>
       </c>
       <c r="B249" s="35">
-        <v>44228</v>
+        <v>44225</v>
       </c>
       <c r="C249" s="32">
-        <v>12502</v>
+        <v>13730</v>
       </c>
     </row>
     <row r="250" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15452,10 +15451,10 @@
         <v>279</v>
       </c>
       <c r="B250" s="35">
-        <v>44229</v>
+        <v>44226</v>
       </c>
       <c r="C250" s="32">
-        <v>16066</v>
+        <v>7082</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15463,10 +15462,10 @@
         <v>279</v>
       </c>
       <c r="B251" s="35">
-        <v>44230</v>
+        <v>44227</v>
       </c>
       <c r="C251" s="32">
-        <v>17426</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15474,10 +15473,10 @@
         <v>279</v>
       </c>
       <c r="B252" s="35">
-        <v>44231</v>
+        <v>44228</v>
       </c>
       <c r="C252" s="32">
-        <v>19586</v>
+        <v>12503</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15485,10 +15484,10 @@
         <v>279</v>
       </c>
       <c r="B253" s="35">
-        <v>44232</v>
+        <v>44229</v>
       </c>
       <c r="C253" s="32">
-        <v>20851</v>
+        <v>16080</v>
       </c>
     </row>
     <row r="254" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15496,10 +15495,10 @@
         <v>279</v>
       </c>
       <c r="B254" s="35">
-        <v>44233</v>
+        <v>44230</v>
       </c>
       <c r="C254" s="32">
-        <v>12249</v>
+        <v>17446</v>
       </c>
     </row>
     <row r="255" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15507,10 +15506,10 @@
         <v>279</v>
       </c>
       <c r="B255" s="35">
-        <v>44234</v>
+        <v>44231</v>
       </c>
       <c r="C255" s="32">
-        <v>2992</v>
+        <v>19621</v>
       </c>
     </row>
     <row r="256" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15518,10 +15517,10 @@
         <v>279</v>
       </c>
       <c r="B256" s="35">
-        <v>44235</v>
+        <v>44232</v>
       </c>
       <c r="C256" s="32">
-        <v>11548</v>
+        <v>20867</v>
       </c>
     </row>
     <row r="257" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15529,10 +15528,10 @@
         <v>279</v>
       </c>
       <c r="B257" s="35">
-        <v>44236</v>
+        <v>44233</v>
       </c>
       <c r="C257" s="32">
-        <v>14127</v>
+        <v>12270</v>
       </c>
     </row>
     <row r="258" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15540,10 +15539,10 @@
         <v>279</v>
       </c>
       <c r="B258" s="35">
-        <v>44237</v>
+        <v>44234</v>
       </c>
       <c r="C258" s="32">
-        <v>15039</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="259" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15551,10 +15550,10 @@
         <v>279</v>
       </c>
       <c r="B259" s="35">
-        <v>44238</v>
+        <v>44235</v>
       </c>
       <c r="C259" s="32">
-        <v>14058</v>
+        <v>11551</v>
       </c>
     </row>
     <row r="260" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15562,10 +15561,10 @@
         <v>279</v>
       </c>
       <c r="B260" s="35">
-        <v>44239</v>
+        <v>44236</v>
       </c>
       <c r="C260" s="32">
-        <v>16479</v>
+        <v>14159</v>
       </c>
     </row>
     <row r="261" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15573,10 +15572,10 @@
         <v>279</v>
       </c>
       <c r="B261" s="35">
-        <v>44240</v>
+        <v>44237</v>
       </c>
       <c r="C261" s="32">
-        <v>7518</v>
+        <v>16575</v>
       </c>
     </row>
     <row r="262" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15584,10 +15583,10 @@
         <v>279</v>
       </c>
       <c r="B262" s="35">
-        <v>44241</v>
+        <v>44238</v>
       </c>
       <c r="C262" s="32">
-        <v>1971</v>
+        <v>14161</v>
       </c>
     </row>
     <row r="263" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15595,10 +15594,10 @@
         <v>279</v>
       </c>
       <c r="B263" s="35">
-        <v>44242</v>
+        <v>44239</v>
       </c>
       <c r="C263" s="32">
-        <v>483</v>
+        <v>16637</v>
       </c>
     </row>
     <row r="264" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15606,10 +15605,10 @@
         <v>279</v>
       </c>
       <c r="B264" s="35">
-        <v>44243</v>
+        <v>44240</v>
       </c>
       <c r="C264" s="32">
-        <v>351</v>
+        <v>7559</v>
       </c>
     </row>
     <row r="265" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15617,54 +15616,54 @@
         <v>279</v>
       </c>
       <c r="B265" s="35">
-        <v>44244</v>
+        <v>44241</v>
       </c>
       <c r="C265" s="32">
-        <v>274</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="266" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B266" s="35">
-        <v>44180</v>
+        <v>44242</v>
       </c>
       <c r="C266" s="32">
-        <v>2</v>
+        <v>503</v>
       </c>
     </row>
     <row r="267" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B267" s="35">
-        <v>44181</v>
+        <v>44243</v>
       </c>
       <c r="C267" s="32">
-        <v>6</v>
+        <v>869</v>
       </c>
     </row>
     <row r="268" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B268" s="35">
-        <v>44182</v>
+        <v>44244</v>
       </c>
       <c r="C268" s="32">
-        <v>13</v>
+        <v>623</v>
       </c>
     </row>
     <row r="269" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B269" s="35">
-        <v>44183</v>
+        <v>44245</v>
       </c>
       <c r="C269" s="32">
-        <v>40</v>
+        <v>626</v>
       </c>
     </row>
     <row r="270" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -15672,10 +15671,10 @@
         <v>280</v>
       </c>
       <c r="B270" s="35">
-        <v>44184</v>
+        <v>44180</v>
       </c>
       <c r="C270" s="32">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15683,10 +15682,10 @@
         <v>280</v>
       </c>
       <c r="B271" s="35">
-        <v>44185</v>
+        <v>44181</v>
       </c>
       <c r="C271" s="32">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15694,10 +15693,10 @@
         <v>280</v>
       </c>
       <c r="B272" s="35">
-        <v>44186</v>
+        <v>44182</v>
       </c>
       <c r="C272" s="32">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15705,10 +15704,10 @@
         <v>280</v>
       </c>
       <c r="B273" s="35">
-        <v>44187</v>
+        <v>44183</v>
       </c>
       <c r="C273" s="32">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15716,10 +15715,10 @@
         <v>280</v>
       </c>
       <c r="B274" s="35">
-        <v>44188</v>
+        <v>44184</v>
       </c>
       <c r="C274" s="32">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15727,10 +15726,10 @@
         <v>280</v>
       </c>
       <c r="B275" s="35">
-        <v>44189</v>
+        <v>44185</v>
       </c>
       <c r="C275" s="32">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15738,10 +15737,10 @@
         <v>280</v>
       </c>
       <c r="B276" s="35">
-        <v>44190</v>
+        <v>44186</v>
       </c>
       <c r="C276" s="32">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15749,10 +15748,10 @@
         <v>280</v>
       </c>
       <c r="B277" s="35">
-        <v>44191</v>
+        <v>44187</v>
       </c>
       <c r="C277" s="32">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15760,10 +15759,10 @@
         <v>280</v>
       </c>
       <c r="B278" s="35">
-        <v>44192</v>
+        <v>44188</v>
       </c>
       <c r="C278" s="32">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15771,10 +15770,10 @@
         <v>280</v>
       </c>
       <c r="B279" s="35">
-        <v>44193</v>
+        <v>44189</v>
       </c>
       <c r="C279" s="32">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15782,10 +15781,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="35">
-        <v>44194</v>
+        <v>44190</v>
       </c>
       <c r="C280" s="32">
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15793,10 +15792,10 @@
         <v>280</v>
       </c>
       <c r="B281" s="35">
-        <v>44195</v>
+        <v>44191</v>
       </c>
       <c r="C281" s="32">
-        <v>85</v>
+        <v>18</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15804,10 +15803,10 @@
         <v>280</v>
       </c>
       <c r="B282" s="35">
-        <v>44196</v>
+        <v>44192</v>
       </c>
       <c r="C282" s="32">
-        <v>57</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15815,10 +15814,10 @@
         <v>280</v>
       </c>
       <c r="B283" s="35">
-        <v>44197</v>
+        <v>44193</v>
       </c>
       <c r="C283" s="32">
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15826,10 +15825,10 @@
         <v>280</v>
       </c>
       <c r="B284" s="35">
-        <v>44198</v>
+        <v>44194</v>
       </c>
       <c r="C284" s="32">
-        <v>17</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15837,10 +15836,10 @@
         <v>280</v>
       </c>
       <c r="B285" s="35">
-        <v>44199</v>
+        <v>44195</v>
       </c>
       <c r="C285" s="32">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
@@ -15848,10 +15847,10 @@
         <v>280</v>
       </c>
       <c r="B286" s="36">
-        <v>44200</v>
+        <v>44196</v>
       </c>
       <c r="C286" s="33">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
@@ -15859,10 +15858,10 @@
         <v>280</v>
       </c>
       <c r="B287" s="36">
-        <v>44201</v>
+        <v>44197</v>
       </c>
       <c r="C287" s="33">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -15870,10 +15869,10 @@
         <v>280</v>
       </c>
       <c r="B288" s="36">
-        <v>44202</v>
+        <v>44198</v>
       </c>
       <c r="C288" s="33">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
@@ -15881,10 +15880,10 @@
         <v>280</v>
       </c>
       <c r="B289" s="36">
-        <v>44203</v>
+        <v>44199</v>
       </c>
       <c r="C289" s="33">
-        <v>62</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -15892,10 +15891,10 @@
         <v>280</v>
       </c>
       <c r="B290" s="36">
-        <v>44204</v>
+        <v>44200</v>
       </c>
       <c r="C290" s="33">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
@@ -15903,10 +15902,10 @@
         <v>280</v>
       </c>
       <c r="B291" s="36">
-        <v>44205</v>
+        <v>44201</v>
       </c>
       <c r="C291" s="33">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -15914,10 +15913,10 @@
         <v>280</v>
       </c>
       <c r="B292" s="36">
-        <v>44206</v>
+        <v>44202</v>
       </c>
       <c r="C292" s="33">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -15925,10 +15924,10 @@
         <v>280</v>
       </c>
       <c r="B293" s="36">
-        <v>44207</v>
+        <v>44203</v>
       </c>
       <c r="C293" s="33">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
@@ -15936,10 +15935,10 @@
         <v>280</v>
       </c>
       <c r="B294" s="36">
-        <v>44208</v>
+        <v>44204</v>
       </c>
       <c r="C294" s="33">
-        <v>75</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -15947,10 +15946,10 @@
         <v>280</v>
       </c>
       <c r="B295" s="36">
-        <v>44209</v>
+        <v>44205</v>
       </c>
       <c r="C295" s="33">
-        <v>86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -15958,10 +15957,10 @@
         <v>280</v>
       </c>
       <c r="B296" s="36">
-        <v>44210</v>
+        <v>44206</v>
       </c>
       <c r="C296" s="33">
-        <v>59</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -15969,10 +15968,10 @@
         <v>280</v>
       </c>
       <c r="B297" s="36">
-        <v>44211</v>
+        <v>44207</v>
       </c>
       <c r="C297" s="33">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
@@ -15980,10 +15979,10 @@
         <v>280</v>
       </c>
       <c r="B298" s="36">
-        <v>44212</v>
+        <v>44208</v>
       </c>
       <c r="C298" s="33">
-        <v>24</v>
+        <v>76</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -15991,10 +15990,10 @@
         <v>280</v>
       </c>
       <c r="B299" s="36">
-        <v>44213</v>
+        <v>44209</v>
       </c>
       <c r="C299" s="33">
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -16002,10 +16001,10 @@
         <v>280</v>
       </c>
       <c r="B300" s="36">
-        <v>44214</v>
+        <v>44210</v>
       </c>
       <c r="C300" s="33">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
@@ -16013,10 +16012,10 @@
         <v>280</v>
       </c>
       <c r="B301" s="36">
-        <v>44215</v>
+        <v>44211</v>
       </c>
       <c r="C301" s="33">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
@@ -16024,10 +16023,10 @@
         <v>280</v>
       </c>
       <c r="B302" s="36">
-        <v>44216</v>
+        <v>44212</v>
       </c>
       <c r="C302" s="33">
-        <v>65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
@@ -16035,10 +16034,10 @@
         <v>280</v>
       </c>
       <c r="B303" s="36">
-        <v>44217</v>
+        <v>44213</v>
       </c>
       <c r="C303" s="33">
-        <v>66</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
@@ -16046,10 +16045,10 @@
         <v>280</v>
       </c>
       <c r="B304" s="36">
-        <v>44218</v>
+        <v>44214</v>
       </c>
       <c r="C304" s="33">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
@@ -16057,10 +16056,10 @@
         <v>280</v>
       </c>
       <c r="B305" s="36">
-        <v>44219</v>
+        <v>44215</v>
       </c>
       <c r="C305" s="33">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -16068,10 +16067,10 @@
         <v>280</v>
       </c>
       <c r="B306" s="36">
-        <v>44220</v>
+        <v>44216</v>
       </c>
       <c r="C306" s="33">
-        <v>5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
@@ -16079,10 +16078,10 @@
         <v>280</v>
       </c>
       <c r="B307" s="36">
-        <v>44221</v>
+        <v>44217</v>
       </c>
       <c r="C307" s="33">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.25">
@@ -16090,10 +16089,10 @@
         <v>280</v>
       </c>
       <c r="B308" s="36">
-        <v>44222</v>
+        <v>44218</v>
       </c>
       <c r="C308" s="33">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.25">
@@ -16101,10 +16100,10 @@
         <v>280</v>
       </c>
       <c r="B309" s="36">
-        <v>44223</v>
+        <v>44219</v>
       </c>
       <c r="C309" s="33">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -16112,10 +16111,10 @@
         <v>280</v>
       </c>
       <c r="B310" s="36">
-        <v>44224</v>
+        <v>44220</v>
       </c>
       <c r="C310" s="33">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -16123,10 +16122,10 @@
         <v>280</v>
       </c>
       <c r="B311" s="36">
-        <v>44225</v>
+        <v>44221</v>
       </c>
       <c r="C311" s="33">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.25">
@@ -16134,10 +16133,10 @@
         <v>280</v>
       </c>
       <c r="B312" s="36">
-        <v>44226</v>
+        <v>44222</v>
       </c>
       <c r="C312" s="33">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.25">
@@ -16145,10 +16144,10 @@
         <v>280</v>
       </c>
       <c r="B313" s="36">
-        <v>44227</v>
+        <v>44223</v>
       </c>
       <c r="C313" s="33">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.25">
@@ -16156,10 +16155,10 @@
         <v>280</v>
       </c>
       <c r="B314" s="36">
-        <v>44228</v>
+        <v>44224</v>
       </c>
       <c r="C314" s="33">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.25">
@@ -16167,10 +16166,10 @@
         <v>280</v>
       </c>
       <c r="B315" s="36">
-        <v>44229</v>
+        <v>44225</v>
       </c>
       <c r="C315" s="33">
-        <v>87</v>
+        <v>71</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -16178,10 +16177,10 @@
         <v>280</v>
       </c>
       <c r="B316" s="36">
-        <v>44230</v>
+        <v>44226</v>
       </c>
       <c r="C316" s="33">
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.25">
@@ -16189,10 +16188,10 @@
         <v>280</v>
       </c>
       <c r="B317" s="36">
-        <v>44231</v>
+        <v>44227</v>
       </c>
       <c r="C317" s="33">
-        <v>76</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -16200,10 +16199,10 @@
         <v>280</v>
       </c>
       <c r="B318" s="36">
-        <v>44232</v>
+        <v>44228</v>
       </c>
       <c r="C318" s="33">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -16211,10 +16210,10 @@
         <v>280</v>
       </c>
       <c r="B319" s="36">
-        <v>44233</v>
+        <v>44229</v>
       </c>
       <c r="C319" s="33">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.25">
@@ -16222,10 +16221,10 @@
         <v>280</v>
       </c>
       <c r="B320" s="36">
-        <v>44234</v>
+        <v>44230</v>
       </c>
       <c r="C320" s="33">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.25">
@@ -16233,10 +16232,10 @@
         <v>280</v>
       </c>
       <c r="B321" s="36">
-        <v>44235</v>
+        <v>44231</v>
       </c>
       <c r="C321" s="33">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.25">
@@ -16244,10 +16243,10 @@
         <v>280</v>
       </c>
       <c r="B322" s="36">
-        <v>44236</v>
+        <v>44232</v>
       </c>
       <c r="C322" s="33">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.25">
@@ -16255,10 +16254,10 @@
         <v>280</v>
       </c>
       <c r="B323" s="36">
-        <v>44237</v>
+        <v>44233</v>
       </c>
       <c r="C323" s="33">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -16266,10 +16265,10 @@
         <v>280</v>
       </c>
       <c r="B324" s="36">
-        <v>44238</v>
+        <v>44234</v>
       </c>
       <c r="C324" s="33">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -16277,10 +16276,10 @@
         <v>280</v>
       </c>
       <c r="B325" s="36">
-        <v>44239</v>
+        <v>44235</v>
       </c>
       <c r="C325" s="33">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -16288,10 +16287,10 @@
         <v>280</v>
       </c>
       <c r="B326" s="36">
-        <v>44240</v>
+        <v>44236</v>
       </c>
       <c r="C326" s="33">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.25">
@@ -16299,10 +16298,87 @@
         <v>280</v>
       </c>
       <c r="B327" s="36">
+        <v>44237</v>
+      </c>
+      <c r="C327" s="33">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B328" s="36">
+        <v>44238</v>
+      </c>
+      <c r="C328" s="33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B329" s="36">
+        <v>44239</v>
+      </c>
+      <c r="C329" s="33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B330" s="36">
+        <v>44240</v>
+      </c>
+      <c r="C330" s="33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B331" s="36">
         <v>44242</v>
       </c>
-      <c r="C327" s="33">
+      <c r="C331" s="33">
         <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B332" s="36">
+        <v>44243</v>
+      </c>
+      <c r="C332" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B333" s="36">
+        <v>44244</v>
+      </c>
+      <c r="C333" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="B334" s="36">
+        <v>44245</v>
+      </c>
+      <c r="C334" s="33">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
